--- a/annotated_data/top_10_medicinal_hits/annotations/manually_annotated_chunks/annotated_chunks_list.xlsx
+++ b/annotated_data/top_10_medicinal_hits/annotations/manually_annotated_chunks/annotated_chunks_list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://rbgkew-my.sharepoint.com/personal/f_civita_kew_org/Documents/Documents/mygithub/MedicinalPlantMining/annotated_data/top_10_medicinal_hits/annotations/manually_annotated_chunks/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fci10kg\OneDrive - The Royal Botanic Gardens, Kew\Documents\mygithub\MedicinalPlantMining\annotated_data\top_10_medicinal_hits\annotations\manually_annotated_chunks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{FAA565CD-23E9-42EE-9269-EDB9600C0C4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCA49E34-CB54-45D3-B148-0E7CBCED3DEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,8 +19,19 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0">Sheet1!$B:$B</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -29,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="865" uniqueCount="436">
   <si>
     <t>id</t>
   </si>
@@ -766,12 +777,639 @@
       <t xml:space="preserve"> This is an example of splitting in chunks that didn't work because the disease at the bottom of the chunk (genital herpes and cold sore) is related to some plant names in the following chunk (Hypericum perforatum, etc)</t>
     </r>
   </si>
+  <si>
+    <t>it's all in macedonian language</t>
+  </si>
+  <si>
+    <t>It's in macedonian language or in english but without any mention of plant species</t>
+  </si>
+  <si>
+    <t>task_for_labelstudio_80818116_chunk_124.json</t>
+  </si>
+  <si>
+    <t>task_for_labelstudio_80818116_chunk_123.json</t>
+  </si>
+  <si>
+    <t>task_for_labelstudio_80818116_chunk_122.json</t>
+  </si>
+  <si>
+    <t>task_for_labelstudio_80818116_chunk_121.json</t>
+  </si>
+  <si>
+    <t>task_for_labelstudio_80818116_chunk_120.json</t>
+  </si>
+  <si>
+    <t>task_for_labelstudio_80818116_chunk_119.json</t>
+  </si>
+  <si>
+    <t>task_for_labelstudio_80818116_chunk_118.json</t>
+  </si>
+  <si>
+    <t>task_for_labelstudio_80818116_chunk_117.json</t>
+  </si>
+  <si>
+    <t>task_for_labelstudio_80818116_chunk_116.json</t>
+  </si>
+  <si>
+    <t>task_for_labelstudio_80818116_chunk_115.json</t>
+  </si>
+  <si>
+    <t>task_for_labelstudio_80818116_chunk_114.json</t>
+  </si>
+  <si>
+    <t>task_for_labelstudio_80818116_chunk_113.json</t>
+  </si>
+  <si>
+    <t>task_for_labelstudio_80818116_chunk_112.json</t>
+  </si>
+  <si>
+    <t>task_for_labelstudio_80818116_chunk_110.json</t>
+  </si>
+  <si>
+    <t>task_for_labelstudio_80818116_chunk_109.json</t>
+  </si>
+  <si>
+    <t>task_for_labelstudio_80818116_chunk_108.json</t>
+  </si>
+  <si>
+    <t>task_for_labelstudio_80818116_chunk_94.json</t>
+  </si>
+  <si>
+    <t>task_for_labelstudio_80818116_chunk_91.json</t>
+  </si>
+  <si>
+    <t>task_for_labelstudio_80818116_chunk_88.json</t>
+  </si>
+  <si>
+    <t>task_for_labelstudio_80818116_chunk_87.json</t>
+  </si>
+  <si>
+    <t>task_for_labelstudio_80818116_chunk_79.json</t>
+  </si>
+  <si>
+    <t>task_for_labelstudio_80818116_chunk_169.json</t>
+  </si>
+  <si>
+    <t>task_for_labelstudio_80818116_chunk_170.json</t>
+  </si>
+  <si>
+    <t>task_for_labelstudio_80818116_chunk_171.json</t>
+  </si>
+  <si>
+    <t>task_for_labelstudio_80818116_chunk_172.json</t>
+  </si>
+  <si>
+    <t>task_for_labelstudio_80818116_chunk_173.json</t>
+  </si>
+  <si>
+    <t>Relevant info only in references</t>
+  </si>
+  <si>
+    <t>task_for_labelstudio_481470282_chunk_1.json</t>
+  </si>
+  <si>
+    <t>task_for_labelstudio_481470282_chunk_2.json</t>
+  </si>
+  <si>
+    <t>task_for_labelstudio_481470282_chunk_3.json</t>
+  </si>
+  <si>
+    <t>task_for_labelstudio_481470282_chunk_4.json</t>
+  </si>
+  <si>
+    <t>task_for_labelstudio_481470282_chunk_5.json</t>
+  </si>
+  <si>
+    <t>task_for_labelstudio_481470282_chunk_6.json</t>
+  </si>
+  <si>
+    <t>task_for_labelstudio_481470282_chunk_7.json</t>
+  </si>
+  <si>
+    <t>task_for_labelstudio_481470282_chunk_8.json</t>
+  </si>
+  <si>
+    <t>task_for_labelstudio_481470282_chunk_9.json</t>
+  </si>
+  <si>
+    <t>task_for_labelstudio_481470282_chunk_10.json</t>
+  </si>
+  <si>
+    <t>task_for_labelstudio_481470282_chunk_11.json</t>
+  </si>
+  <si>
+    <t>task_for_labelstudio_481470282_chunk_12.json</t>
+  </si>
+  <si>
+    <t>task_for_labelstudio_481470282_chunk_13.json</t>
+  </si>
+  <si>
+    <t>task_for_labelstudio_481470282_chunk_14.json</t>
+  </si>
+  <si>
+    <t>task_for_labelstudio_481470282_chunk_15.json</t>
+  </si>
+  <si>
+    <t>task_for_labelstudio_481470282_chunk_16.json</t>
+  </si>
+  <si>
+    <t>task_for_labelstudio_481470282_chunk_17.json</t>
+  </si>
+  <si>
+    <t>task_for_labelstudio_481470282_chunk_18.json</t>
+  </si>
+  <si>
+    <t>task_for_labelstudio_481470282_chunk_19.json</t>
+  </si>
+  <si>
+    <t>task_for_labelstudio_481470282_chunk_20.json</t>
+  </si>
+  <si>
+    <t>task_for_labelstudio_481470282_chunk_21.json</t>
+  </si>
+  <si>
+    <t>task_for_labelstudio_481470282_chunk_22.json</t>
+  </si>
+  <si>
+    <t>task_for_labelstudio_481470282_chunk_23.json</t>
+  </si>
+  <si>
+    <t>task_for_labelstudio_481470282_chunk_24.json</t>
+  </si>
+  <si>
+    <t>task_for_labelstudio_481470282_chunk_25.json</t>
+  </si>
+  <si>
+    <t>task_for_labelstudio_481470282_chunk_26.json</t>
+  </si>
+  <si>
+    <t>task_for_labelstudio_481470282_chunk_27.json</t>
+  </si>
+  <si>
+    <t>task_for_labelstudio_481470282_chunk_28.json</t>
+  </si>
+  <si>
+    <t>task_for_labelstudio_481470282_chunk_29.json</t>
+  </si>
+  <si>
+    <t>task_for_labelstudio_481470282_chunk_30.json</t>
+  </si>
+  <si>
+    <t>task_for_labelstudio_481470282_chunk_31.json</t>
+  </si>
+  <si>
+    <t>task_for_labelstudio_481470282_chunk_32.json</t>
+  </si>
+  <si>
+    <t>task_for_labelstudio_481470282_chunk_33.json</t>
+  </si>
+  <si>
+    <t>task_for_labelstudio_35321774_chunk_0.json</t>
+  </si>
+  <si>
+    <t>task_for_labelstudio_35321774_chunk_1.json</t>
+  </si>
+  <si>
+    <t>task_for_labelstudio_35321774_chunk_2.json</t>
+  </si>
+  <si>
+    <t>task_for_labelstudio_35321774_chunk_18.json</t>
+  </si>
+  <si>
+    <t>task_for_labelstudio_35321774_chunk_19.json</t>
+  </si>
+  <si>
+    <t>task_for_labelstudio_35321774_chunk_51.json</t>
+  </si>
+  <si>
+    <t>task_for_labelstudio_35321774_chunk_52.json</t>
+  </si>
+  <si>
+    <t>task_for_labelstudio_35321774_chunk_55.json</t>
+  </si>
+  <si>
+    <t>task_for_labelstudio_35321774_chunk_57.json</t>
+  </si>
+  <si>
+    <t>task_for_labelstudio_35321774_chunk_58.json</t>
+  </si>
+  <si>
+    <t>task_for_labelstudio_35321774_chunk_65.json</t>
+  </si>
+  <si>
+    <t>task_for_labelstudio_35321774_chunk_66.json</t>
+  </si>
+  <si>
+    <t>task_for_labelstudio_35321774_chunk_67.json</t>
+  </si>
+  <si>
+    <t>task_for_labelstudio_35321774_chunk_72.json</t>
+  </si>
+  <si>
+    <t>task_for_labelstudio_35321774_chunk_73.json</t>
+  </si>
+  <si>
+    <t>task_for_labelstudio_35321774_chunk_74.json</t>
+  </si>
+  <si>
+    <t>task_for_labelstudio_35321774_chunk_75.json</t>
+  </si>
+  <si>
+    <t>task_for_labelstudio_35321774_chunk_76.json</t>
+  </si>
+  <si>
+    <t>task_for_labelstudio_35321774_chunk_77.json</t>
+  </si>
+  <si>
+    <t>task_for_labelstudio_35321774_chunk_78.json</t>
+  </si>
+  <si>
+    <t>task_for_labelstudio_35321774_chunk_79.json</t>
+  </si>
+  <si>
+    <t>task_for_labelstudio_35321774_chunk_80.json</t>
+  </si>
+  <si>
+    <t>task_for_labelstudio_35321774_chunk_81.json</t>
+  </si>
+  <si>
+    <t>task_for_labelstudio_35321774_chunk_82.json</t>
+  </si>
+  <si>
+    <t>task_for_labelstudio_35321774_chunk_83.json</t>
+  </si>
+  <si>
+    <t>task_for_labelstudio_35321774_chunk_84.json</t>
+  </si>
+  <si>
+    <t>task_for_labelstudio_35321774_chunk_85.json</t>
+  </si>
+  <si>
+    <t>task_for_labelstudio_35321774_chunk_86.json</t>
+  </si>
+  <si>
+    <t>task_for_labelstudio_35321774_chunk_87.json</t>
+  </si>
+  <si>
+    <t>task_for_labelstudio_35321774_chunk_88.json</t>
+  </si>
+  <si>
+    <t>task_for_labelstudio_35321774_chunk_89.json</t>
+  </si>
+  <si>
+    <t>task_for_labelstudio_35321774_chunk_90.json</t>
+  </si>
+  <si>
+    <t>task_for_labelstudio_35321774_chunk_91.json</t>
+  </si>
+  <si>
+    <t>task_for_labelstudio_35321774_chunk_92.json</t>
+  </si>
+  <si>
+    <t>task_for_labelstudio_35321774_chunk_93.json</t>
+  </si>
+  <si>
+    <t>task_for_labelstudio_35321774_chunk_106.json</t>
+  </si>
+  <si>
+    <t>task_for_labelstudio_35321774_chunk_120.json</t>
+  </si>
+  <si>
+    <t>task_for_labelstudio_35321774_chunk_121.json</t>
+  </si>
+  <si>
+    <t>task_for_labelstudio_35321774_chunk_134.json</t>
+  </si>
+  <si>
+    <t>task_for_labelstudio_35321774_chunk_139.json</t>
+  </si>
+  <si>
+    <t>task_for_labelstudio_286439500_chunk_0.json</t>
+  </si>
+  <si>
+    <t>task_for_labelstudio_286439500_chunk_1.json</t>
+  </si>
+  <si>
+    <t>task_for_labelstudio_286439500_chunk_2.json</t>
+  </si>
+  <si>
+    <t>task_for_labelstudio_286439500_chunk_3.json</t>
+  </si>
+  <si>
+    <t>task_for_labelstudio_286439500_chunk_4.json</t>
+  </si>
+  <si>
+    <t>task_for_labelstudio_286439500_chunk_5.json</t>
+  </si>
+  <si>
+    <t>task_for_labelstudio_286439500_chunk_6.json</t>
+  </si>
+  <si>
+    <t>task_for_labelstudio_286439500_chunk_7.json</t>
+  </si>
+  <si>
+    <t>task_for_labelstudio_286439500_chunk_8.json</t>
+  </si>
+  <si>
+    <t>task_for_labelstudio_286439500_chunk_9.json</t>
+  </si>
+  <si>
+    <t>task_for_labelstudio_286439500_chunk_10.json</t>
+  </si>
+  <si>
+    <t>task_for_labelstudio_286439500_chunk_11.json</t>
+  </si>
+  <si>
+    <t>task_for_labelstudio_286439500_chunk_12.json</t>
+  </si>
+  <si>
+    <t>task_for_labelstudio_286439500_chunk_13.json</t>
+  </si>
+  <si>
+    <t>task_for_labelstudio_286439500_chunk_14.json</t>
+  </si>
+  <si>
+    <t>task_for_labelstudio_286439500_chunk_15.json</t>
+  </si>
+  <si>
+    <t>task_for_labelstudio_286439500_chunk_16.json</t>
+  </si>
+  <si>
+    <t>task_for_labelstudio_286439500_chunk_17.json</t>
+  </si>
+  <si>
+    <t>task_for_labelstudio_286439500_chunk_18.json</t>
+  </si>
+  <si>
+    <t>task_for_labelstudio_286439500_chunk_19.json</t>
+  </si>
+  <si>
+    <t>task_for_labelstudio_286439500_chunk_20.json</t>
+  </si>
+  <si>
+    <t>task_for_labelstudio_286439500_chunk_23.json</t>
+  </si>
+  <si>
+    <t>task_for_labelstudio_286439500_chunk_24.json</t>
+  </si>
+  <si>
+    <t>task_for_labelstudio_286439500_chunk_25.json</t>
+  </si>
+  <si>
+    <t>task_for_labelstudio_286439500_chunk_26.json</t>
+  </si>
+  <si>
+    <t>task_for_labelstudio_286439500_chunk_27.json</t>
+  </si>
+  <si>
+    <t>task_for_labelstudio_286439500_chunk_28.json</t>
+  </si>
+  <si>
+    <t>task_for_labelstudio_286439500_chunk_29.json</t>
+  </si>
+  <si>
+    <t>task_for_labelstudio_286439500_chunk_32.json</t>
+  </si>
+  <si>
+    <t>task_for_labelstudio_286439500_chunk_33.json</t>
+  </si>
+  <si>
+    <t>task_for_labelstudio_286439500_chunk_34.json</t>
+  </si>
+  <si>
+    <t>task_for_labelstudio_286439500_chunk_36.json</t>
+  </si>
+  <si>
+    <t>task_for_labelstudio_286439500_chunk_37.json</t>
+  </si>
+  <si>
+    <t>task_for_labelstudio_286439500_chunk_38.json</t>
+  </si>
+  <si>
+    <t>task_for_labelstudio_286439500_chunk_39.json</t>
+  </si>
+  <si>
+    <t>task_for_labelstudio_286439500_chunk_40.json</t>
+  </si>
+  <si>
+    <t>task_for_labelstudio_286439500_chunk_41.json</t>
+  </si>
+  <si>
+    <t>task_for_labelstudio_286439500_chunk_42.json</t>
+  </si>
+  <si>
+    <t>task_for_labelstudio_286439500_chunk_48.json</t>
+  </si>
+  <si>
+    <t>task_for_labelstudio_286439500_chunk_49.json</t>
+  </si>
+  <si>
+    <t>task_for_labelstudio_286439500_chunk_53.json</t>
+  </si>
+  <si>
+    <t>task_for_labelstudio_286439500_chunk_55.json</t>
+  </si>
+  <si>
+    <t>task_for_labelstudio_286439500_chunk_57.json</t>
+  </si>
+  <si>
+    <t>task_for_labelstudio_286439500_chunk_58.json</t>
+  </si>
+  <si>
+    <t>task_for_labelstudio_286439500_chunk_59.json</t>
+  </si>
+  <si>
+    <t>task_for_labelstudio_286439500_chunk_62.json</t>
+  </si>
+  <si>
+    <t>task_for_labelstudio_286439500_chunk_63.json</t>
+  </si>
+  <si>
+    <t>task_for_labelstudio_286439500_chunk_64.json</t>
+  </si>
+  <si>
+    <t>task_for_labelstudio_286439500_chunk_65.json</t>
+  </si>
+  <si>
+    <t>task_for_labelstudio_286439500_chunk_66.json</t>
+  </si>
+  <si>
+    <t>task_for_labelstudio_286439500_chunk_67.json</t>
+  </si>
+  <si>
+    <t>task_for_labelstudio_286439500_chunk_68.json</t>
+  </si>
+  <si>
+    <t>task_for_labelstudio_286439500_chunk_71.json</t>
+  </si>
+  <si>
+    <t>task_for_labelstudio_286439500_chunk_72.json</t>
+  </si>
+  <si>
+    <t>task_for_labelstudio_286439500_chunk_73.json</t>
+  </si>
+  <si>
+    <t>task_for_labelstudio_286439500_chunk_74.json</t>
+  </si>
+  <si>
+    <t>task_for_labelstudio_286439500_chunk_75.json</t>
+  </si>
+  <si>
+    <t>task_for_labelstudio_286439500_chunk_78.json</t>
+  </si>
+  <si>
+    <t>task_for_labelstudio_286439500_chunk_79.json</t>
+  </si>
+  <si>
+    <t>task_for_labelstudio_286439500_chunk_83.json</t>
+  </si>
+  <si>
+    <t>task_for_labelstudio_286439500_chunk_84.json</t>
+  </si>
+  <si>
+    <t>task_for_labelstudio_286439500_chunk_85.json</t>
+  </si>
+  <si>
+    <t>task_for_labelstudio_286439500_chunk_86.json</t>
+  </si>
+  <si>
+    <t>task_for_labelstudio_286439500_chunk_87.json</t>
+  </si>
+  <si>
+    <t>task_for_labelstudio_286439500_chunk_88.json</t>
+  </si>
+  <si>
+    <t>task_for_labelstudio_286439500_chunk_89.json</t>
+  </si>
+  <si>
+    <t>task_for_labelstudio_286439500_chunk_90.json</t>
+  </si>
+  <si>
+    <t>task_for_labelstudio_286439500_chunk_91.json</t>
+  </si>
+  <si>
+    <t>task_for_labelstudio_286439500_chunk_92.json</t>
+  </si>
+  <si>
+    <t>task_for_labelstudio_286439500_chunk_94.json</t>
+  </si>
+  <si>
+    <t>task_for_labelstudio_286439500_chunk_95.json</t>
+  </si>
+  <si>
+    <t>task_for_labelstudio_286439500_chunk_96.json</t>
+  </si>
+  <si>
+    <t>task_for_labelstudio_286439500_chunk_97.json</t>
+  </si>
+  <si>
+    <t>task_for_labelstudio_286439500_chunk_99.json</t>
+  </si>
+  <si>
+    <t>task_for_labelstudio_286439500_chunk_100.json</t>
+  </si>
+  <si>
+    <t>task_for_labelstudio_286439500_chunk_101.json</t>
+  </si>
+  <si>
+    <t>task_for_labelstudio_286439500_chunk_102.json</t>
+  </si>
+  <si>
+    <t>task_for_labelstudio_286439500_chunk_105.json</t>
+  </si>
+  <si>
+    <t>task_for_labelstudio_286439500_chunk_106.json</t>
+  </si>
+  <si>
+    <t>task_for_labelstudio_286439500_chunk_107.json</t>
+  </si>
+  <si>
+    <t>task_for_labelstudio_286439500_chunk_108.json</t>
+  </si>
+  <si>
+    <t>task_for_labelstudio_286439500_chunk_109.json</t>
+  </si>
+  <si>
+    <t>task_for_labelstudio_286439500_chunk_110.json</t>
+  </si>
+  <si>
+    <t>task_for_labelstudio_286439500_chunk_111.json</t>
+  </si>
+  <si>
+    <t>task_for_labelstudio_286439500_chunk_112.json</t>
+  </si>
+  <si>
+    <t>task_for_labelstudio_286439500_chunk_113.json</t>
+  </si>
+  <si>
+    <t>task_for_labelstudio_286439500_chunk_115.json</t>
+  </si>
+  <si>
+    <t>task_for_labelstudio_286439500_chunk_116.json</t>
+  </si>
+  <si>
+    <t>task_for_labelstudio_286439500_chunk_117.json</t>
+  </si>
+  <si>
+    <t>task_for_labelstudio_286439500_chunk_118.json</t>
+  </si>
+  <si>
+    <t>task_for_labelstudio_286439500_chunk_120.json</t>
+  </si>
+  <si>
+    <t>task_for_labelstudio_286439500_chunk_121.json</t>
+  </si>
+  <si>
+    <t>task_for_labelstudio_286439500_chunk_122.json</t>
+  </si>
+  <si>
+    <t>task_for_labelstudio_286439500_chunk_123.json</t>
+  </si>
+  <si>
+    <t>task_for_labelstudio_286439500_chunk_124.json</t>
+  </si>
+  <si>
+    <t>task_for_labelstudio_286439500_chunk_125.json</t>
+  </si>
+  <si>
+    <t>task_for_labelstudio_286439500_chunk_126.json</t>
+  </si>
+  <si>
+    <t>task_for_labelstudio_286439500_chunk_127.json</t>
+  </si>
+  <si>
+    <t>task_for_labelstudio_286439500_chunk_128.json</t>
+  </si>
+  <si>
+    <t>task_for_labelstudio_286439500_chunk_129.json</t>
+  </si>
+  <si>
+    <t>task_for_labelstudio_286439500_chunk_130.json</t>
+  </si>
+  <si>
+    <t>task_for_labelstudio_286439500_chunk_131.json</t>
+  </si>
+  <si>
+    <t>task_for_labelstudio_286439500_chunk_132.json</t>
+  </si>
+  <si>
+    <t>task_for_labelstudio_286439500_chunk_133.json</t>
+  </si>
+  <si>
+    <t>task_for_labelstudio_286439500_chunk_134.json</t>
+  </si>
+  <si>
+    <t>task_for_labelstudio_286439500_chunk_135.json</t>
+  </si>
+  <si>
+    <t>task_for_labelstudio_286439500_chunk_31.json</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -807,6 +1445,12 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -828,7 +1472,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -837,6 +1481,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1171,17 +1819,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D196"/>
+  <dimension ref="A1:D402"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A1048573" sqref="A1048573"/>
+    <sheetView tabSelected="1" topLeftCell="A397" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C353" sqref="C353"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="62.90625" customWidth="1"/>
     <col min="3" max="3" width="24.26953125" customWidth="1"/>
-    <col min="4" max="4" width="58.36328125" customWidth="1"/>
+    <col min="4" max="4" width="27.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -3347,6 +3995,2504 @@
       </c>
       <c r="C196" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A197">
+        <v>196</v>
+      </c>
+      <c r="B197" t="s">
+        <v>229</v>
+      </c>
+      <c r="C197" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A198">
+        <f>1+A197</f>
+        <v>197</v>
+      </c>
+      <c r="B198" t="s">
+        <v>230</v>
+      </c>
+      <c r="C198" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A199">
+        <f t="shared" ref="A199:A216" si="0">1+A198</f>
+        <v>198</v>
+      </c>
+      <c r="B199" t="s">
+        <v>231</v>
+      </c>
+      <c r="C199" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A200">
+        <f t="shared" si="0"/>
+        <v>199</v>
+      </c>
+      <c r="B200" t="s">
+        <v>232</v>
+      </c>
+      <c r="C200" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A201">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="B201" t="s">
+        <v>233</v>
+      </c>
+      <c r="C201" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A202">
+        <f t="shared" si="0"/>
+        <v>201</v>
+      </c>
+      <c r="B202" t="s">
+        <v>234</v>
+      </c>
+      <c r="C202" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A203">
+        <f t="shared" si="0"/>
+        <v>202</v>
+      </c>
+      <c r="B203" t="s">
+        <v>235</v>
+      </c>
+      <c r="C203" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A204">
+        <f t="shared" si="0"/>
+        <v>203</v>
+      </c>
+      <c r="B204" t="s">
+        <v>236</v>
+      </c>
+      <c r="C204" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A205">
+        <f t="shared" si="0"/>
+        <v>204</v>
+      </c>
+      <c r="B205" t="s">
+        <v>237</v>
+      </c>
+      <c r="C205" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A206">
+        <f t="shared" si="0"/>
+        <v>205</v>
+      </c>
+      <c r="B206" t="s">
+        <v>238</v>
+      </c>
+      <c r="C206" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A207">
+        <f t="shared" si="0"/>
+        <v>206</v>
+      </c>
+      <c r="B207" t="s">
+        <v>239</v>
+      </c>
+      <c r="C207" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A208">
+        <f t="shared" si="0"/>
+        <v>207</v>
+      </c>
+      <c r="B208" t="s">
+        <v>240</v>
+      </c>
+      <c r="C208" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A209">
+        <f t="shared" si="0"/>
+        <v>208</v>
+      </c>
+      <c r="B209" t="s">
+        <v>241</v>
+      </c>
+      <c r="C209" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A210">
+        <f>1+A209</f>
+        <v>209</v>
+      </c>
+      <c r="B210" t="s">
+        <v>242</v>
+      </c>
+      <c r="C210" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A211">
+        <f t="shared" si="0"/>
+        <v>210</v>
+      </c>
+      <c r="B211" t="s">
+        <v>243</v>
+      </c>
+      <c r="C211" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A212">
+        <f t="shared" si="0"/>
+        <v>211</v>
+      </c>
+      <c r="B212" t="s">
+        <v>244</v>
+      </c>
+      <c r="C212" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A213">
+        <f>1+A212</f>
+        <v>212</v>
+      </c>
+      <c r="B213" t="s">
+        <v>245</v>
+      </c>
+      <c r="C213" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A214">
+        <f t="shared" si="0"/>
+        <v>213</v>
+      </c>
+      <c r="B214" t="s">
+        <v>246</v>
+      </c>
+      <c r="C214" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A215">
+        <f>1+A214</f>
+        <v>214</v>
+      </c>
+      <c r="B215" t="s">
+        <v>247</v>
+      </c>
+      <c r="C215" t="s">
+        <v>15</v>
+      </c>
+      <c r="D215" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A216">
+        <f t="shared" si="0"/>
+        <v>215</v>
+      </c>
+      <c r="B216" t="s">
+        <v>248</v>
+      </c>
+      <c r="C216" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A217">
+        <f>1+A216</f>
+        <v>216</v>
+      </c>
+      <c r="B217" t="s">
+        <v>249</v>
+      </c>
+      <c r="C217" t="s">
+        <v>15</v>
+      </c>
+      <c r="D217" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A218">
+        <f t="shared" ref="A218:A281" si="1">1+A217</f>
+        <v>217</v>
+      </c>
+      <c r="B218" t="s">
+        <v>250</v>
+      </c>
+      <c r="C218" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A219">
+        <f t="shared" si="1"/>
+        <v>218</v>
+      </c>
+      <c r="B219" t="s">
+        <v>251</v>
+      </c>
+      <c r="C219" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A220">
+        <f t="shared" si="1"/>
+        <v>219</v>
+      </c>
+      <c r="B220" t="s">
+        <v>252</v>
+      </c>
+      <c r="C220" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A221">
+        <f t="shared" si="1"/>
+        <v>220</v>
+      </c>
+      <c r="B221" t="s">
+        <v>253</v>
+      </c>
+      <c r="C221" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A222">
+        <f t="shared" si="1"/>
+        <v>221</v>
+      </c>
+      <c r="B222" t="s">
+        <v>254</v>
+      </c>
+      <c r="C222" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A223">
+        <f t="shared" si="1"/>
+        <v>222</v>
+      </c>
+      <c r="B223" t="s">
+        <v>256</v>
+      </c>
+      <c r="C223" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A224">
+        <f t="shared" si="1"/>
+        <v>223</v>
+      </c>
+      <c r="B224" t="s">
+        <v>257</v>
+      </c>
+      <c r="C224" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A225">
+        <f t="shared" si="1"/>
+        <v>224</v>
+      </c>
+      <c r="B225" t="s">
+        <v>258</v>
+      </c>
+      <c r="C225" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A226">
+        <f t="shared" si="1"/>
+        <v>225</v>
+      </c>
+      <c r="B226" t="s">
+        <v>259</v>
+      </c>
+      <c r="C226" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A227">
+        <f t="shared" si="1"/>
+        <v>226</v>
+      </c>
+      <c r="B227" t="s">
+        <v>260</v>
+      </c>
+      <c r="C227" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A228">
+        <f t="shared" si="1"/>
+        <v>227</v>
+      </c>
+      <c r="B228" t="s">
+        <v>261</v>
+      </c>
+      <c r="C228" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A229">
+        <f t="shared" si="1"/>
+        <v>228</v>
+      </c>
+      <c r="B229" t="s">
+        <v>262</v>
+      </c>
+      <c r="C229" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A230">
+        <f t="shared" si="1"/>
+        <v>229</v>
+      </c>
+      <c r="B230" t="s">
+        <v>263</v>
+      </c>
+      <c r="C230" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A231">
+        <f t="shared" si="1"/>
+        <v>230</v>
+      </c>
+      <c r="B231" t="s">
+        <v>264</v>
+      </c>
+      <c r="C231" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A232">
+        <f t="shared" si="1"/>
+        <v>231</v>
+      </c>
+      <c r="B232" t="s">
+        <v>265</v>
+      </c>
+      <c r="C232" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A233">
+        <f t="shared" si="1"/>
+        <v>232</v>
+      </c>
+      <c r="B233" t="s">
+        <v>266</v>
+      </c>
+      <c r="C233" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A234">
+        <f t="shared" si="1"/>
+        <v>233</v>
+      </c>
+      <c r="B234" t="s">
+        <v>267</v>
+      </c>
+      <c r="C234" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A235">
+        <f t="shared" si="1"/>
+        <v>234</v>
+      </c>
+      <c r="B235" t="s">
+        <v>268</v>
+      </c>
+      <c r="C235" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A236">
+        <f t="shared" si="1"/>
+        <v>235</v>
+      </c>
+      <c r="B236" t="s">
+        <v>269</v>
+      </c>
+      <c r="C236" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A237">
+        <f t="shared" si="1"/>
+        <v>236</v>
+      </c>
+      <c r="B237" t="s">
+        <v>270</v>
+      </c>
+      <c r="C237" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A238">
+        <f t="shared" si="1"/>
+        <v>237</v>
+      </c>
+      <c r="B238" t="s">
+        <v>271</v>
+      </c>
+      <c r="C238" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A239">
+        <f t="shared" si="1"/>
+        <v>238</v>
+      </c>
+      <c r="B239" t="s">
+        <v>272</v>
+      </c>
+      <c r="C239" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A240">
+        <f t="shared" si="1"/>
+        <v>239</v>
+      </c>
+      <c r="B240" t="s">
+        <v>273</v>
+      </c>
+      <c r="C240" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A241">
+        <f t="shared" si="1"/>
+        <v>240</v>
+      </c>
+      <c r="B241" t="s">
+        <v>274</v>
+      </c>
+      <c r="C241" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A242">
+        <f t="shared" si="1"/>
+        <v>241</v>
+      </c>
+      <c r="B242" t="s">
+        <v>275</v>
+      </c>
+      <c r="C242" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A243">
+        <f t="shared" si="1"/>
+        <v>242</v>
+      </c>
+      <c r="B243" t="s">
+        <v>276</v>
+      </c>
+      <c r="C243" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A244">
+        <f t="shared" si="1"/>
+        <v>243</v>
+      </c>
+      <c r="B244" t="s">
+        <v>277</v>
+      </c>
+      <c r="C244" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A245">
+        <f t="shared" si="1"/>
+        <v>244</v>
+      </c>
+      <c r="B245" t="s">
+        <v>278</v>
+      </c>
+      <c r="C245" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A246">
+        <f t="shared" si="1"/>
+        <v>245</v>
+      </c>
+      <c r="B246" t="s">
+        <v>279</v>
+      </c>
+      <c r="C246" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A247">
+        <f t="shared" si="1"/>
+        <v>246</v>
+      </c>
+      <c r="B247" t="s">
+        <v>280</v>
+      </c>
+      <c r="C247" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A248">
+        <f t="shared" si="1"/>
+        <v>247</v>
+      </c>
+      <c r="B248" t="s">
+        <v>281</v>
+      </c>
+      <c r="C248" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A249">
+        <f t="shared" si="1"/>
+        <v>248</v>
+      </c>
+      <c r="B249" t="s">
+        <v>282</v>
+      </c>
+      <c r="C249" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A250">
+        <f t="shared" si="1"/>
+        <v>249</v>
+      </c>
+      <c r="B250" t="s">
+        <v>283</v>
+      </c>
+      <c r="C250" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A251">
+        <f t="shared" si="1"/>
+        <v>250</v>
+      </c>
+      <c r="B251" t="s">
+        <v>284</v>
+      </c>
+      <c r="C251" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A252">
+        <f t="shared" si="1"/>
+        <v>251</v>
+      </c>
+      <c r="B252" t="s">
+        <v>285</v>
+      </c>
+      <c r="C252" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A253">
+        <f t="shared" si="1"/>
+        <v>252</v>
+      </c>
+      <c r="B253" t="s">
+        <v>286</v>
+      </c>
+      <c r="C253" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A254">
+        <f t="shared" si="1"/>
+        <v>253</v>
+      </c>
+      <c r="B254" t="s">
+        <v>287</v>
+      </c>
+      <c r="C254" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A255">
+        <f t="shared" si="1"/>
+        <v>254</v>
+      </c>
+      <c r="B255" t="s">
+        <v>288</v>
+      </c>
+      <c r="C255" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A256">
+        <f t="shared" si="1"/>
+        <v>255</v>
+      </c>
+      <c r="B256" t="s">
+        <v>289</v>
+      </c>
+      <c r="C256" t="s">
+        <v>15</v>
+      </c>
+      <c r="D256" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A257">
+        <f t="shared" si="1"/>
+        <v>256</v>
+      </c>
+      <c r="B257" t="s">
+        <v>290</v>
+      </c>
+      <c r="C257" t="s">
+        <v>15</v>
+      </c>
+      <c r="D257" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A258">
+        <f t="shared" si="1"/>
+        <v>257</v>
+      </c>
+      <c r="B258" t="s">
+        <v>291</v>
+      </c>
+      <c r="C258" t="s">
+        <v>15</v>
+      </c>
+      <c r="D258" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A259">
+        <f t="shared" si="1"/>
+        <v>258</v>
+      </c>
+      <c r="B259" t="s">
+        <v>292</v>
+      </c>
+      <c r="C259" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A260">
+        <f t="shared" si="1"/>
+        <v>259</v>
+      </c>
+      <c r="B260" t="s">
+        <v>293</v>
+      </c>
+      <c r="C260" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A261">
+        <f t="shared" si="1"/>
+        <v>260</v>
+      </c>
+      <c r="B261" t="s">
+        <v>294</v>
+      </c>
+      <c r="C261" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A262">
+        <f t="shared" si="1"/>
+        <v>261</v>
+      </c>
+      <c r="B262" t="s">
+        <v>295</v>
+      </c>
+      <c r="C262" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A263">
+        <f t="shared" si="1"/>
+        <v>262</v>
+      </c>
+      <c r="B263" t="s">
+        <v>296</v>
+      </c>
+      <c r="C263" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A264">
+        <f t="shared" si="1"/>
+        <v>263</v>
+      </c>
+      <c r="B264" t="s">
+        <v>297</v>
+      </c>
+      <c r="C264" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A265">
+        <f t="shared" si="1"/>
+        <v>264</v>
+      </c>
+      <c r="B265" t="s">
+        <v>298</v>
+      </c>
+      <c r="C265" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A266">
+        <f t="shared" si="1"/>
+        <v>265</v>
+      </c>
+      <c r="B266" t="s">
+        <v>299</v>
+      </c>
+      <c r="C266" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A267">
+        <f t="shared" si="1"/>
+        <v>266</v>
+      </c>
+      <c r="B267" t="s">
+        <v>300</v>
+      </c>
+      <c r="C267" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A268">
+        <f t="shared" si="1"/>
+        <v>267</v>
+      </c>
+      <c r="B268" t="s">
+        <v>301</v>
+      </c>
+      <c r="C268" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A269">
+        <f t="shared" si="1"/>
+        <v>268</v>
+      </c>
+      <c r="B269" t="s">
+        <v>302</v>
+      </c>
+      <c r="C269" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A270">
+        <f t="shared" si="1"/>
+        <v>269</v>
+      </c>
+      <c r="B270" t="s">
+        <v>303</v>
+      </c>
+      <c r="C270" t="s">
+        <v>15</v>
+      </c>
+      <c r="D270" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A271">
+        <f t="shared" si="1"/>
+        <v>270</v>
+      </c>
+      <c r="B271" t="s">
+        <v>304</v>
+      </c>
+      <c r="C271" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A272">
+        <f t="shared" si="1"/>
+        <v>271</v>
+      </c>
+      <c r="B272" t="s">
+        <v>305</v>
+      </c>
+      <c r="C272" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A273">
+        <f t="shared" si="1"/>
+        <v>272</v>
+      </c>
+      <c r="B273" t="s">
+        <v>306</v>
+      </c>
+      <c r="C273" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A274">
+        <f t="shared" si="1"/>
+        <v>273</v>
+      </c>
+      <c r="B274" t="s">
+        <v>307</v>
+      </c>
+      <c r="C274" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A275">
+        <f t="shared" si="1"/>
+        <v>274</v>
+      </c>
+      <c r="B275" t="s">
+        <v>308</v>
+      </c>
+      <c r="C275" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A276">
+        <f t="shared" si="1"/>
+        <v>275</v>
+      </c>
+      <c r="B276" t="s">
+        <v>309</v>
+      </c>
+      <c r="C276" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A277">
+        <f t="shared" si="1"/>
+        <v>276</v>
+      </c>
+      <c r="B277" t="s">
+        <v>310</v>
+      </c>
+      <c r="C277" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A278">
+        <f t="shared" si="1"/>
+        <v>277</v>
+      </c>
+      <c r="B278" t="s">
+        <v>311</v>
+      </c>
+      <c r="C278" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A279">
+        <f t="shared" si="1"/>
+        <v>278</v>
+      </c>
+      <c r="B279" t="s">
+        <v>312</v>
+      </c>
+      <c r="C279" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A280">
+        <f t="shared" si="1"/>
+        <v>279</v>
+      </c>
+      <c r="B280" t="s">
+        <v>313</v>
+      </c>
+      <c r="C280" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A281">
+        <f t="shared" si="1"/>
+        <v>280</v>
+      </c>
+      <c r="B281" t="s">
+        <v>314</v>
+      </c>
+      <c r="C281" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A282">
+        <f t="shared" ref="A282:A345" si="2">1+A281</f>
+        <v>281</v>
+      </c>
+      <c r="B282" t="s">
+        <v>315</v>
+      </c>
+      <c r="C282" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A283">
+        <f t="shared" si="2"/>
+        <v>282</v>
+      </c>
+      <c r="B283" t="s">
+        <v>316</v>
+      </c>
+      <c r="C283" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A284">
+        <f t="shared" si="2"/>
+        <v>283</v>
+      </c>
+      <c r="B284" t="s">
+        <v>317</v>
+      </c>
+      <c r="C284" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A285">
+        <f t="shared" si="2"/>
+        <v>284</v>
+      </c>
+      <c r="B285" t="s">
+        <v>318</v>
+      </c>
+      <c r="C285" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A286">
+        <f t="shared" si="2"/>
+        <v>285</v>
+      </c>
+      <c r="B286" t="s">
+        <v>319</v>
+      </c>
+      <c r="C286" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A287">
+        <f t="shared" si="2"/>
+        <v>286</v>
+      </c>
+      <c r="B287" t="s">
+        <v>320</v>
+      </c>
+      <c r="C287" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A288">
+        <f t="shared" si="2"/>
+        <v>287</v>
+      </c>
+      <c r="B288" t="s">
+        <v>321</v>
+      </c>
+      <c r="C288" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A289">
+        <f t="shared" si="2"/>
+        <v>288</v>
+      </c>
+      <c r="B289" t="s">
+        <v>322</v>
+      </c>
+      <c r="C289" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A290">
+        <f t="shared" si="2"/>
+        <v>289</v>
+      </c>
+      <c r="B290" t="s">
+        <v>323</v>
+      </c>
+      <c r="C290" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A291">
+        <f t="shared" si="2"/>
+        <v>290</v>
+      </c>
+      <c r="B291" t="s">
+        <v>324</v>
+      </c>
+      <c r="C291" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A292">
+        <f t="shared" si="2"/>
+        <v>291</v>
+      </c>
+      <c r="B292" t="s">
+        <v>325</v>
+      </c>
+      <c r="C292" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A293">
+        <f t="shared" si="2"/>
+        <v>292</v>
+      </c>
+      <c r="B293" t="s">
+        <v>326</v>
+      </c>
+      <c r="C293" t="s">
+        <v>15</v>
+      </c>
+      <c r="D293" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A294">
+        <f t="shared" si="2"/>
+        <v>293</v>
+      </c>
+      <c r="B294" t="s">
+        <v>327</v>
+      </c>
+      <c r="C294" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A295">
+        <f t="shared" si="2"/>
+        <v>294</v>
+      </c>
+      <c r="B295" t="s">
+        <v>328</v>
+      </c>
+      <c r="C295" t="s">
+        <v>15</v>
+      </c>
+      <c r="D295" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A296">
+        <f t="shared" si="2"/>
+        <v>295</v>
+      </c>
+      <c r="B296" t="s">
+        <v>329</v>
+      </c>
+      <c r="C296" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A297">
+        <f t="shared" si="2"/>
+        <v>296</v>
+      </c>
+      <c r="B297" t="s">
+        <v>330</v>
+      </c>
+      <c r="C297" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A298">
+        <f t="shared" si="2"/>
+        <v>297</v>
+      </c>
+      <c r="B298" t="s">
+        <v>331</v>
+      </c>
+      <c r="C298" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A299">
+        <f t="shared" si="2"/>
+        <v>298</v>
+      </c>
+      <c r="B299" t="s">
+        <v>332</v>
+      </c>
+      <c r="C299" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A300">
+        <f t="shared" si="2"/>
+        <v>299</v>
+      </c>
+      <c r="B300" t="s">
+        <v>333</v>
+      </c>
+      <c r="C300" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A301">
+        <f t="shared" si="2"/>
+        <v>300</v>
+      </c>
+      <c r="B301" t="s">
+        <v>334</v>
+      </c>
+      <c r="C301" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A302">
+        <f t="shared" si="2"/>
+        <v>301</v>
+      </c>
+      <c r="B302" t="s">
+        <v>335</v>
+      </c>
+      <c r="C302" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A303">
+        <f t="shared" si="2"/>
+        <v>302</v>
+      </c>
+      <c r="B303" t="s">
+        <v>336</v>
+      </c>
+      <c r="C303" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A304">
+        <f t="shared" si="2"/>
+        <v>303</v>
+      </c>
+      <c r="B304" t="s">
+        <v>337</v>
+      </c>
+      <c r="C304" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A305">
+        <f t="shared" si="2"/>
+        <v>304</v>
+      </c>
+      <c r="B305" t="s">
+        <v>338</v>
+      </c>
+      <c r="C305" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A306">
+        <f t="shared" si="2"/>
+        <v>305</v>
+      </c>
+      <c r="B306" t="s">
+        <v>339</v>
+      </c>
+      <c r="C306" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A307">
+        <f t="shared" si="2"/>
+        <v>306</v>
+      </c>
+      <c r="B307" t="s">
+        <v>340</v>
+      </c>
+      <c r="C307" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A308">
+        <f t="shared" si="2"/>
+        <v>307</v>
+      </c>
+      <c r="B308" t="s">
+        <v>341</v>
+      </c>
+      <c r="C308" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A309">
+        <f t="shared" si="2"/>
+        <v>308</v>
+      </c>
+      <c r="B309" t="s">
+        <v>342</v>
+      </c>
+      <c r="C309" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A310">
+        <f t="shared" si="2"/>
+        <v>309</v>
+      </c>
+      <c r="B310" t="s">
+        <v>343</v>
+      </c>
+      <c r="C310" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A311">
+        <f t="shared" si="2"/>
+        <v>310</v>
+      </c>
+      <c r="B311" t="s">
+        <v>344</v>
+      </c>
+      <c r="C311" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A312">
+        <f t="shared" si="2"/>
+        <v>311</v>
+      </c>
+      <c r="B312" t="s">
+        <v>345</v>
+      </c>
+      <c r="C312" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A313">
+        <f t="shared" si="2"/>
+        <v>312</v>
+      </c>
+      <c r="B313" t="s">
+        <v>346</v>
+      </c>
+      <c r="C313" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A314">
+        <f t="shared" si="2"/>
+        <v>313</v>
+      </c>
+      <c r="B314" t="s">
+        <v>347</v>
+      </c>
+      <c r="C314" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A315">
+        <f t="shared" si="2"/>
+        <v>314</v>
+      </c>
+      <c r="B315" t="s">
+        <v>348</v>
+      </c>
+      <c r="C315" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A316">
+        <f t="shared" si="2"/>
+        <v>315</v>
+      </c>
+      <c r="B316" t="s">
+        <v>349</v>
+      </c>
+      <c r="C316" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A317">
+        <f t="shared" si="2"/>
+        <v>316</v>
+      </c>
+      <c r="B317" t="s">
+        <v>350</v>
+      </c>
+      <c r="C317" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A318">
+        <f t="shared" si="2"/>
+        <v>317</v>
+      </c>
+      <c r="B318" t="s">
+        <v>351</v>
+      </c>
+      <c r="C318" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A319">
+        <f t="shared" si="2"/>
+        <v>318</v>
+      </c>
+      <c r="B319" t="s">
+        <v>352</v>
+      </c>
+      <c r="C319" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A320">
+        <f t="shared" si="2"/>
+        <v>319</v>
+      </c>
+      <c r="B320" t="s">
+        <v>353</v>
+      </c>
+      <c r="C320" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A321">
+        <f t="shared" si="2"/>
+        <v>320</v>
+      </c>
+      <c r="B321" t="s">
+        <v>354</v>
+      </c>
+      <c r="C321" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A322">
+        <f t="shared" si="2"/>
+        <v>321</v>
+      </c>
+      <c r="B322" t="s">
+        <v>355</v>
+      </c>
+      <c r="C322" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A323">
+        <f t="shared" si="2"/>
+        <v>322</v>
+      </c>
+      <c r="B323" t="s">
+        <v>356</v>
+      </c>
+      <c r="C323" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A324">
+        <f t="shared" si="2"/>
+        <v>323</v>
+      </c>
+      <c r="B324" t="s">
+        <v>435</v>
+      </c>
+      <c r="C324" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A325">
+        <f t="shared" si="2"/>
+        <v>324</v>
+      </c>
+      <c r="B325" t="s">
+        <v>357</v>
+      </c>
+      <c r="C325" t="s">
+        <v>15</v>
+      </c>
+      <c r="D325" s="4"/>
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A326">
+        <f t="shared" si="2"/>
+        <v>325</v>
+      </c>
+      <c r="B326" t="s">
+        <v>358</v>
+      </c>
+      <c r="C326" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A327">
+        <f t="shared" si="2"/>
+        <v>326</v>
+      </c>
+      <c r="B327" t="s">
+        <v>359</v>
+      </c>
+      <c r="C327" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A328">
+        <f t="shared" si="2"/>
+        <v>327</v>
+      </c>
+      <c r="B328" t="s">
+        <v>360</v>
+      </c>
+      <c r="C328" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A329">
+        <f t="shared" si="2"/>
+        <v>328</v>
+      </c>
+      <c r="B329" t="s">
+        <v>361</v>
+      </c>
+      <c r="C329" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A330">
+        <f t="shared" si="2"/>
+        <v>329</v>
+      </c>
+      <c r="B330" t="s">
+        <v>362</v>
+      </c>
+      <c r="C330" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A331">
+        <f t="shared" si="2"/>
+        <v>330</v>
+      </c>
+      <c r="B331" t="s">
+        <v>363</v>
+      </c>
+      <c r="C331" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A332">
+        <f t="shared" si="2"/>
+        <v>331</v>
+      </c>
+      <c r="B332" t="s">
+        <v>364</v>
+      </c>
+      <c r="C332" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A333">
+        <f t="shared" si="2"/>
+        <v>332</v>
+      </c>
+      <c r="B333" t="s">
+        <v>365</v>
+      </c>
+      <c r="C333" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A334">
+        <f t="shared" si="2"/>
+        <v>333</v>
+      </c>
+      <c r="B334" t="s">
+        <v>366</v>
+      </c>
+      <c r="C334" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A335">
+        <f t="shared" si="2"/>
+        <v>334</v>
+      </c>
+      <c r="B335" t="s">
+        <v>367</v>
+      </c>
+      <c r="C335" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A336">
+        <f t="shared" si="2"/>
+        <v>335</v>
+      </c>
+      <c r="B336" t="s">
+        <v>368</v>
+      </c>
+      <c r="C336" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A337">
+        <f t="shared" si="2"/>
+        <v>336</v>
+      </c>
+      <c r="B337" t="s">
+        <v>369</v>
+      </c>
+      <c r="C337" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A338">
+        <f t="shared" si="2"/>
+        <v>337</v>
+      </c>
+      <c r="B338" t="s">
+        <v>370</v>
+      </c>
+      <c r="C338" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A339">
+        <f t="shared" si="2"/>
+        <v>338</v>
+      </c>
+      <c r="B339" t="s">
+        <v>371</v>
+      </c>
+      <c r="C339" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A340">
+        <f t="shared" si="2"/>
+        <v>339</v>
+      </c>
+      <c r="B340" t="s">
+        <v>372</v>
+      </c>
+      <c r="C340" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A341">
+        <f t="shared" si="2"/>
+        <v>340</v>
+      </c>
+      <c r="B341" t="s">
+        <v>373</v>
+      </c>
+      <c r="C341" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A342">
+        <f t="shared" si="2"/>
+        <v>341</v>
+      </c>
+      <c r="B342" t="s">
+        <v>374</v>
+      </c>
+      <c r="C342" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A343">
+        <f t="shared" si="2"/>
+        <v>342</v>
+      </c>
+      <c r="B343" t="s">
+        <v>375</v>
+      </c>
+      <c r="C343" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A344">
+        <f t="shared" si="2"/>
+        <v>343</v>
+      </c>
+      <c r="B344" t="s">
+        <v>376</v>
+      </c>
+      <c r="C344" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A345">
+        <f t="shared" si="2"/>
+        <v>344</v>
+      </c>
+      <c r="B345" t="s">
+        <v>377</v>
+      </c>
+      <c r="C345" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A346">
+        <f t="shared" ref="A346:A402" si="3">1+A345</f>
+        <v>345</v>
+      </c>
+      <c r="B346" t="s">
+        <v>378</v>
+      </c>
+      <c r="C346" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A347">
+        <f t="shared" si="3"/>
+        <v>346</v>
+      </c>
+      <c r="B347" t="s">
+        <v>379</v>
+      </c>
+      <c r="C347" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A348">
+        <f t="shared" si="3"/>
+        <v>347</v>
+      </c>
+      <c r="B348" t="s">
+        <v>380</v>
+      </c>
+      <c r="C348" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A349">
+        <f t="shared" si="3"/>
+        <v>348</v>
+      </c>
+      <c r="B349" t="s">
+        <v>381</v>
+      </c>
+      <c r="C349" t="s">
+        <v>15</v>
+      </c>
+      <c r="D349" s="5"/>
+    </row>
+    <row r="350" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A350">
+        <f t="shared" si="3"/>
+        <v>349</v>
+      </c>
+      <c r="B350" t="s">
+        <v>382</v>
+      </c>
+      <c r="C350" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A351">
+        <f t="shared" si="3"/>
+        <v>350</v>
+      </c>
+      <c r="B351" t="s">
+        <v>383</v>
+      </c>
+      <c r="C351" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A352">
+        <f t="shared" si="3"/>
+        <v>351</v>
+      </c>
+      <c r="B352" t="s">
+        <v>384</v>
+      </c>
+      <c r="C352" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A353">
+        <f t="shared" si="3"/>
+        <v>352</v>
+      </c>
+      <c r="B353" t="s">
+        <v>385</v>
+      </c>
+      <c r="C353" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A354">
+        <f t="shared" si="3"/>
+        <v>353</v>
+      </c>
+      <c r="B354" t="s">
+        <v>386</v>
+      </c>
+      <c r="C354" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A355">
+        <f t="shared" si="3"/>
+        <v>354</v>
+      </c>
+      <c r="B355" t="s">
+        <v>387</v>
+      </c>
+      <c r="C355" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A356">
+        <f t="shared" si="3"/>
+        <v>355</v>
+      </c>
+      <c r="B356" t="s">
+        <v>388</v>
+      </c>
+      <c r="C356" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A357">
+        <f t="shared" si="3"/>
+        <v>356</v>
+      </c>
+      <c r="B357" t="s">
+        <v>389</v>
+      </c>
+      <c r="C357" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A358">
+        <f t="shared" si="3"/>
+        <v>357</v>
+      </c>
+      <c r="B358" t="s">
+        <v>390</v>
+      </c>
+      <c r="C358" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A359">
+        <f t="shared" si="3"/>
+        <v>358</v>
+      </c>
+      <c r="B359" t="s">
+        <v>391</v>
+      </c>
+      <c r="C359" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A360">
+        <f t="shared" si="3"/>
+        <v>359</v>
+      </c>
+      <c r="B360" t="s">
+        <v>392</v>
+      </c>
+      <c r="C360" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A361">
+        <f t="shared" si="3"/>
+        <v>360</v>
+      </c>
+      <c r="B361" t="s">
+        <v>393</v>
+      </c>
+      <c r="C361" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A362">
+        <f t="shared" si="3"/>
+        <v>361</v>
+      </c>
+      <c r="B362" t="s">
+        <v>394</v>
+      </c>
+      <c r="C362" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A363">
+        <f t="shared" si="3"/>
+        <v>362</v>
+      </c>
+      <c r="B363" t="s">
+        <v>395</v>
+      </c>
+      <c r="C363" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A364">
+        <f t="shared" si="3"/>
+        <v>363</v>
+      </c>
+      <c r="B364" t="s">
+        <v>396</v>
+      </c>
+      <c r="C364" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A365">
+        <f t="shared" si="3"/>
+        <v>364</v>
+      </c>
+      <c r="B365" t="s">
+        <v>397</v>
+      </c>
+      <c r="C365" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A366">
+        <f t="shared" si="3"/>
+        <v>365</v>
+      </c>
+      <c r="B366" t="s">
+        <v>398</v>
+      </c>
+      <c r="C366" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A367">
+        <f t="shared" si="3"/>
+        <v>366</v>
+      </c>
+      <c r="B367" t="s">
+        <v>399</v>
+      </c>
+      <c r="C367" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A368">
+        <f t="shared" si="3"/>
+        <v>367</v>
+      </c>
+      <c r="B368" t="s">
+        <v>400</v>
+      </c>
+      <c r="C368" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A369">
+        <f t="shared" si="3"/>
+        <v>368</v>
+      </c>
+      <c r="B369" t="s">
+        <v>401</v>
+      </c>
+      <c r="C369" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A370">
+        <f t="shared" si="3"/>
+        <v>369</v>
+      </c>
+      <c r="B370" t="s">
+        <v>402</v>
+      </c>
+      <c r="C370" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A371">
+        <f t="shared" si="3"/>
+        <v>370</v>
+      </c>
+      <c r="B371" t="s">
+        <v>403</v>
+      </c>
+      <c r="C371" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A372">
+        <f t="shared" si="3"/>
+        <v>371</v>
+      </c>
+      <c r="B372" t="s">
+        <v>404</v>
+      </c>
+      <c r="C372" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A373">
+        <f t="shared" si="3"/>
+        <v>372</v>
+      </c>
+      <c r="B373" t="s">
+        <v>405</v>
+      </c>
+      <c r="C373" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A374">
+        <f t="shared" si="3"/>
+        <v>373</v>
+      </c>
+      <c r="B374" t="s">
+        <v>406</v>
+      </c>
+      <c r="C374" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A375">
+        <f t="shared" si="3"/>
+        <v>374</v>
+      </c>
+      <c r="B375" t="s">
+        <v>407</v>
+      </c>
+      <c r="C375" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A376">
+        <f t="shared" si="3"/>
+        <v>375</v>
+      </c>
+      <c r="B376" t="s">
+        <v>408</v>
+      </c>
+      <c r="C376" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A377">
+        <f t="shared" si="3"/>
+        <v>376</v>
+      </c>
+      <c r="B377" t="s">
+        <v>409</v>
+      </c>
+      <c r="C377" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A378">
+        <f t="shared" si="3"/>
+        <v>377</v>
+      </c>
+      <c r="B378" t="s">
+        <v>410</v>
+      </c>
+      <c r="C378" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A379">
+        <f t="shared" si="3"/>
+        <v>378</v>
+      </c>
+      <c r="B379" t="s">
+        <v>411</v>
+      </c>
+      <c r="C379" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A380">
+        <f t="shared" si="3"/>
+        <v>379</v>
+      </c>
+      <c r="B380" t="s">
+        <v>412</v>
+      </c>
+      <c r="C380" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A381">
+        <f t="shared" si="3"/>
+        <v>380</v>
+      </c>
+      <c r="B381" t="s">
+        <v>413</v>
+      </c>
+      <c r="C381" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A382">
+        <f t="shared" si="3"/>
+        <v>381</v>
+      </c>
+      <c r="B382" t="s">
+        <v>414</v>
+      </c>
+      <c r="C382" t="s">
+        <v>15</v>
+      </c>
+      <c r="D382" s="5"/>
+    </row>
+    <row r="383" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A383">
+        <f t="shared" si="3"/>
+        <v>382</v>
+      </c>
+      <c r="B383" t="s">
+        <v>415</v>
+      </c>
+      <c r="C383" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A384">
+        <f t="shared" si="3"/>
+        <v>383</v>
+      </c>
+      <c r="B384" t="s">
+        <v>416</v>
+      </c>
+      <c r="C384" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A385">
+        <f t="shared" si="3"/>
+        <v>384</v>
+      </c>
+      <c r="B385" t="s">
+        <v>417</v>
+      </c>
+      <c r="C385" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A386">
+        <f t="shared" si="3"/>
+        <v>385</v>
+      </c>
+      <c r="B386" t="s">
+        <v>418</v>
+      </c>
+      <c r="C386" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A387">
+        <f t="shared" si="3"/>
+        <v>386</v>
+      </c>
+      <c r="B387" t="s">
+        <v>419</v>
+      </c>
+      <c r="C387" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A388">
+        <f t="shared" si="3"/>
+        <v>387</v>
+      </c>
+      <c r="B388" t="s">
+        <v>420</v>
+      </c>
+      <c r="C388" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A389">
+        <f t="shared" si="3"/>
+        <v>388</v>
+      </c>
+      <c r="B389" t="s">
+        <v>421</v>
+      </c>
+      <c r="C389" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A390">
+        <f t="shared" si="3"/>
+        <v>389</v>
+      </c>
+      <c r="B390" t="s">
+        <v>422</v>
+      </c>
+      <c r="C390" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A391">
+        <f t="shared" si="3"/>
+        <v>390</v>
+      </c>
+      <c r="B391" t="s">
+        <v>423</v>
+      </c>
+      <c r="C391" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A392">
+        <f t="shared" si="3"/>
+        <v>391</v>
+      </c>
+      <c r="B392" t="s">
+        <v>424</v>
+      </c>
+      <c r="C392" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A393">
+        <f t="shared" si="3"/>
+        <v>392</v>
+      </c>
+      <c r="B393" t="s">
+        <v>425</v>
+      </c>
+      <c r="C393" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A394">
+        <f t="shared" si="3"/>
+        <v>393</v>
+      </c>
+      <c r="B394" t="s">
+        <v>426</v>
+      </c>
+      <c r="C394" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A395">
+        <f t="shared" si="3"/>
+        <v>394</v>
+      </c>
+      <c r="B395" t="s">
+        <v>427</v>
+      </c>
+      <c r="C395" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A396">
+        <f t="shared" si="3"/>
+        <v>395</v>
+      </c>
+      <c r="B396" t="s">
+        <v>428</v>
+      </c>
+      <c r="C396" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A397">
+        <f t="shared" si="3"/>
+        <v>396</v>
+      </c>
+      <c r="B397" t="s">
+        <v>429</v>
+      </c>
+      <c r="C397" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A398">
+        <f t="shared" si="3"/>
+        <v>397</v>
+      </c>
+      <c r="B398" t="s">
+        <v>430</v>
+      </c>
+      <c r="C398" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A399">
+        <f t="shared" si="3"/>
+        <v>398</v>
+      </c>
+      <c r="B399" t="s">
+        <v>431</v>
+      </c>
+      <c r="C399" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A400">
+        <f t="shared" si="3"/>
+        <v>399</v>
+      </c>
+      <c r="B400" t="s">
+        <v>432</v>
+      </c>
+      <c r="C400" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A401">
+        <f t="shared" si="3"/>
+        <v>400</v>
+      </c>
+      <c r="B401" t="s">
+        <v>433</v>
+      </c>
+      <c r="C401" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A402">
+        <f t="shared" si="3"/>
+        <v>401</v>
+      </c>
+      <c r="B402" t="s">
+        <v>434</v>
+      </c>
+      <c r="C402" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -3359,7 +6505,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08357DB0-FD3D-470A-95B1-1DC3FFF1E17D}">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G1" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>

--- a/annotated_data/top_10_medicinal_hits/annotations/manually_annotated_chunks/annotated_chunks_list.xlsx
+++ b/annotated_data/top_10_medicinal_hits/annotations/manually_annotated_chunks/annotated_chunks_list.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fci10kg\OneDrive - The Royal Botanic Gardens, Kew\Documents\mygithub\MedicinalPlantMining\annotated_data\top_10_medicinal_hits\annotations\manually_annotated_chunks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://rbgkew-my.sharepoint.com/personal/f_civita_kew_org/Documents/Documents/mygithub/MedicinalPlantMining/annotated_data/top_10_medicinal_hits/annotations/manually_annotated_chunks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCA49E34-CB54-45D3-B148-0E7CBCED3DEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="340" documentId="14_{FAA565CD-23E9-42EE-9269-EDB9600C0C4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0B7A2FBE-CB9A-40C8-8333-40F864F61554}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1500,6 +1500,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1821,8 +1825,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D402"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A397" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C353" sqref="C353"/>
+    <sheetView tabSelected="1" topLeftCell="A383" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C296" sqref="B296:C402"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/annotated_data/top_10_medicinal_hits/annotations/manually_annotated_chunks/annotated_chunks_list.xlsx
+++ b/annotated_data/top_10_medicinal_hits/annotations/manually_annotated_chunks/annotated_chunks_list.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://rbgkew-my.sharepoint.com/personal/f_civita_kew_org/Documents/Documents/mygithub/MedicinalPlantMining/annotated_data/top_10_medicinal_hits/annotations/manually_annotated_chunks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="340" documentId="14_{FAA565CD-23E9-42EE-9269-EDB9600C0C4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0B7A2FBE-CB9A-40C8-8333-40F864F61554}"/>
+  <xr:revisionPtr revIDLastSave="363" documentId="14_{FAA565CD-23E9-42EE-9269-EDB9600C0C4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0516194C-8E0B-43F8-B124-A0EF750FF74D}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1500,10 +1500,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1825,8 +1821,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D402"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A383" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C296" sqref="B296:C402"/>
+    <sheetView tabSelected="1" topLeftCell="A312" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B377" sqref="B377"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/annotated_data/top_10_medicinal_hits/annotations/manually_annotated_chunks/annotated_chunks_list.xlsx
+++ b/annotated_data/top_10_medicinal_hits/annotations/manually_annotated_chunks/annotated_chunks_list.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://rbgkew-my.sharepoint.com/personal/f_civita_kew_org/Documents/Documents/mygithub/MedicinalPlantMining/annotated_data/top_10_medicinal_hits/annotations/manually_annotated_chunks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="363" documentId="14_{FAA565CD-23E9-42EE-9269-EDB9600C0C4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0516194C-8E0B-43F8-B124-A0EF750FF74D}"/>
+  <xr:revisionPtr revIDLastSave="366" documentId="14_{FAA565CD-23E9-42EE-9269-EDB9600C0C4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{192B5118-B367-49D3-821D-E2ABBABAA92B}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="865" uniqueCount="436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1274" uniqueCount="443">
   <si>
     <t>id</t>
   </si>
@@ -610,9 +610,6 @@
   </si>
   <si>
     <t>task_for_labelstudio_80818116_chunk_69.json</t>
-  </si>
-  <si>
-    <t>this has only relevat info in the top part of the chunk but it is contained in a reference</t>
   </si>
   <si>
     <t>task_for_labelstudio_80818116_chunk_68.json</t>
@@ -1403,6 +1400,30 @@
   </si>
   <si>
     <t>task_for_labelstudio_286439500_chunk_31.json</t>
+  </si>
+  <si>
+    <t>mixed_chunks</t>
+  </si>
+  <si>
+    <t>The only label is in a title at the end of the chunk</t>
+  </si>
+  <si>
+    <t>no annotation in the references</t>
+  </si>
+  <si>
+    <t>No labels</t>
+  </si>
+  <si>
+    <t>Labels in the title at the end</t>
+  </si>
+  <si>
+    <t>Labels in the title</t>
+  </si>
+  <si>
+    <t>originally I thought it was the one at the beginning but I changed idea</t>
+  </si>
+  <si>
+    <t>probably an annotated title</t>
   </si>
 </sst>
 </file>
@@ -1819,20 +1840,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D402"/>
+  <dimension ref="A1:E402"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A312" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B377" sqref="B377"/>
+    <sheetView tabSelected="1" topLeftCell="A306" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="62.90625" customWidth="1"/>
-    <col min="3" max="3" width="24.26953125" customWidth="1"/>
-    <col min="4" max="4" width="27.7265625" customWidth="1"/>
+    <col min="3" max="4" width="24.26953125" customWidth="1"/>
+    <col min="5" max="5" width="27.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1843,10 +1864,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1856,8 +1880,11 @@
       <c r="C2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1867,8 +1894,11 @@
       <c r="C3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1878,8 +1908,11 @@
       <c r="C4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1889,8 +1922,11 @@
       <c r="C5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1900,8 +1936,11 @@
       <c r="C6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1911,8 +1950,11 @@
       <c r="C7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1922,8 +1964,11 @@
       <c r="C8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1933,8 +1978,11 @@
       <c r="C9" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1944,8 +1992,11 @@
       <c r="C10" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1955,8 +2006,11 @@
       <c r="C11" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1966,8 +2020,11 @@
       <c r="C12" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1977,8 +2034,11 @@
       <c r="C13" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1988,8 +2048,11 @@
       <c r="C14" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1999,8 +2062,11 @@
       <c r="C15" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2011,10 +2077,13 @@
         <v>15</v>
       </c>
       <c r="D16" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2024,8 +2093,11 @@
       <c r="C17" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2035,8 +2107,11 @@
       <c r="C18" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2046,8 +2121,11 @@
       <c r="C19" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2057,8 +2135,11 @@
       <c r="C20" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2068,8 +2149,11 @@
       <c r="C21" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2079,8 +2163,11 @@
       <c r="C22" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2090,8 +2177,11 @@
       <c r="C23" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2101,8 +2191,11 @@
       <c r="C24" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D24" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2112,8 +2205,11 @@
       <c r="C25" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2123,8 +2219,11 @@
       <c r="C26" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D26" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2134,8 +2233,11 @@
       <c r="C27" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D27" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2145,8 +2247,11 @@
       <c r="C28" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D28" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2156,8 +2261,11 @@
       <c r="C29" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2167,8 +2275,11 @@
       <c r="C30" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D30" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2178,8 +2289,11 @@
       <c r="C31" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D31" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2189,8 +2303,11 @@
       <c r="C32" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D32" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2200,8 +2317,11 @@
       <c r="C33" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D33" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2211,8 +2331,11 @@
       <c r="C34" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D34" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2222,8 +2345,11 @@
       <c r="C35" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D35" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2233,8 +2359,11 @@
       <c r="C36" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D36" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2244,8 +2373,11 @@
       <c r="C37" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D37" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2255,8 +2387,11 @@
       <c r="C38" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D38" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2266,8 +2401,11 @@
       <c r="C39" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D39" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2277,8 +2415,11 @@
       <c r="C40" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D40" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2288,8 +2429,11 @@
       <c r="C41" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D41" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2299,8 +2443,11 @@
       <c r="C42" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D42" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2310,8 +2457,14 @@
       <c r="C43" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D43" t="s">
+        <v>5</v>
+      </c>
+      <c r="E43" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2321,8 +2474,11 @@
       <c r="C44" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D44" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2332,8 +2488,11 @@
       <c r="C45" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D45" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>45</v>
       </c>
@@ -2343,8 +2502,11 @@
       <c r="C46" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D46" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2354,8 +2516,11 @@
       <c r="C47" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D47" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>47</v>
       </c>
@@ -2365,8 +2530,11 @@
       <c r="C48" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D48" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>48</v>
       </c>
@@ -2376,8 +2544,11 @@
       <c r="C49" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D49" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>49</v>
       </c>
@@ -2387,8 +2558,11 @@
       <c r="C50" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D50" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>50</v>
       </c>
@@ -2398,8 +2572,11 @@
       <c r="C51" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D51" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>51</v>
       </c>
@@ -2409,8 +2586,11 @@
       <c r="C52" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D52" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>52</v>
       </c>
@@ -2420,8 +2600,11 @@
       <c r="C53" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D53" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>53</v>
       </c>
@@ -2431,8 +2614,11 @@
       <c r="C54" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D54" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>54</v>
       </c>
@@ -2442,8 +2628,11 @@
       <c r="C55" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D55" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>55</v>
       </c>
@@ -2453,8 +2642,11 @@
       <c r="C56" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D56" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>56</v>
       </c>
@@ -2464,8 +2656,11 @@
       <c r="C57" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D57" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>57</v>
       </c>
@@ -2475,8 +2670,11 @@
       <c r="C58" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D58" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>58</v>
       </c>
@@ -2486,8 +2684,11 @@
       <c r="C59" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D59" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>59</v>
       </c>
@@ -2497,8 +2698,11 @@
       <c r="C60" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D60" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>60</v>
       </c>
@@ -2508,8 +2712,11 @@
       <c r="C61" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D61" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>61</v>
       </c>
@@ -2519,8 +2726,11 @@
       <c r="C62" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D62" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>62</v>
       </c>
@@ -2530,8 +2740,11 @@
       <c r="C63" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D63" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>63</v>
       </c>
@@ -2541,8 +2754,11 @@
       <c r="C64" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D64" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>64</v>
       </c>
@@ -2552,8 +2768,11 @@
       <c r="C65" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D65" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>65</v>
       </c>
@@ -2563,8 +2782,11 @@
       <c r="C66" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D66" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>66</v>
       </c>
@@ -2574,8 +2796,11 @@
       <c r="C67" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D67" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>67</v>
       </c>
@@ -2585,8 +2810,11 @@
       <c r="C68" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D68" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>68</v>
       </c>
@@ -2596,8 +2824,11 @@
       <c r="C69" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D69" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>69</v>
       </c>
@@ -2607,8 +2838,11 @@
       <c r="C70" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D70" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>70</v>
       </c>
@@ -2618,8 +2852,11 @@
       <c r="C71" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D71" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>71</v>
       </c>
@@ -2629,8 +2866,11 @@
       <c r="C72" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D72" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>72</v>
       </c>
@@ -2640,8 +2880,11 @@
       <c r="C73" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D73" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>73</v>
       </c>
@@ -2651,8 +2894,11 @@
       <c r="C74" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D74" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>74</v>
       </c>
@@ -2662,8 +2908,11 @@
       <c r="C75" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D75" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>75</v>
       </c>
@@ -2673,8 +2922,11 @@
       <c r="C76" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D76" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>76</v>
       </c>
@@ -2684,8 +2936,11 @@
       <c r="C77" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D77" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>77</v>
       </c>
@@ -2695,8 +2950,11 @@
       <c r="C78" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D78" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>78</v>
       </c>
@@ -2706,8 +2964,11 @@
       <c r="C79" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D79" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>79</v>
       </c>
@@ -2717,8 +2978,11 @@
       <c r="C80" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D80" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>80</v>
       </c>
@@ -2728,8 +2992,11 @@
       <c r="C81" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D81" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>81</v>
       </c>
@@ -2739,8 +3006,11 @@
       <c r="C82" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D82" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>82</v>
       </c>
@@ -2750,8 +3020,11 @@
       <c r="C83" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D83" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>83</v>
       </c>
@@ -2761,8 +3034,11 @@
       <c r="C84" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D84" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>84</v>
       </c>
@@ -2772,8 +3048,11 @@
       <c r="C85" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D85" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>85</v>
       </c>
@@ -2783,8 +3062,11 @@
       <c r="C86" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D86" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>86</v>
       </c>
@@ -2794,8 +3076,11 @@
       <c r="C87" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D87" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>87</v>
       </c>
@@ -2805,8 +3090,11 @@
       <c r="C88" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D88" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>88</v>
       </c>
@@ -2816,8 +3104,11 @@
       <c r="C89" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D89" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>89</v>
       </c>
@@ -2827,8 +3118,11 @@
       <c r="C90" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D90" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>90</v>
       </c>
@@ -2838,8 +3132,11 @@
       <c r="C91" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D91" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>91</v>
       </c>
@@ -2849,8 +3146,11 @@
       <c r="C92" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D92" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>92</v>
       </c>
@@ -2860,8 +3160,11 @@
       <c r="C93" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D93" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>93</v>
       </c>
@@ -2871,8 +3174,11 @@
       <c r="C94" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D94" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>94</v>
       </c>
@@ -2882,8 +3188,11 @@
       <c r="C95" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D95" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>95</v>
       </c>
@@ -2893,8 +3202,11 @@
       <c r="C96" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D96" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>96</v>
       </c>
@@ -2904,8 +3216,11 @@
       <c r="C97" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D97" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>97</v>
       </c>
@@ -2915,8 +3230,11 @@
       <c r="C98" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D98" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>98</v>
       </c>
@@ -2926,8 +3244,11 @@
       <c r="C99" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D99" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>99</v>
       </c>
@@ -2937,8 +3258,11 @@
       <c r="C100" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D100" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>100</v>
       </c>
@@ -2948,8 +3272,11 @@
       <c r="C101" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D101" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>101</v>
       </c>
@@ -2959,8 +3286,11 @@
       <c r="C102" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D102" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>102</v>
       </c>
@@ -2970,8 +3300,11 @@
       <c r="C103" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D103" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>103</v>
       </c>
@@ -2981,8 +3314,11 @@
       <c r="C104" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D104" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>104</v>
       </c>
@@ -2992,8 +3328,11 @@
       <c r="C105" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D105" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>105</v>
       </c>
@@ -3003,8 +3342,11 @@
       <c r="C106" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D106" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>106</v>
       </c>
@@ -3014,8 +3356,11 @@
       <c r="C107" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D107" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>107</v>
       </c>
@@ -3025,8 +3370,11 @@
       <c r="C108" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D108" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>108</v>
       </c>
@@ -3036,8 +3384,11 @@
       <c r="C109" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D109" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A110">
         <v>109</v>
       </c>
@@ -3047,8 +3398,11 @@
       <c r="C110" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D110" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A111">
         <v>110</v>
       </c>
@@ -3058,8 +3412,11 @@
       <c r="C111" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D111" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>111</v>
       </c>
@@ -3069,8 +3426,11 @@
       <c r="C112" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D112" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>112</v>
       </c>
@@ -3080,8 +3440,11 @@
       <c r="C113" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D113" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A114">
         <v>113</v>
       </c>
@@ -3091,8 +3454,11 @@
       <c r="C114" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D114" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A115">
         <v>114</v>
       </c>
@@ -3102,8 +3468,11 @@
       <c r="C115" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D115" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A116">
         <v>115</v>
       </c>
@@ -3113,8 +3482,11 @@
       <c r="C116" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D116" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A117">
         <v>116</v>
       </c>
@@ -3124,8 +3496,11 @@
       <c r="C117" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D117" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A118">
         <v>117</v>
       </c>
@@ -3135,8 +3510,11 @@
       <c r="C118" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D118" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A119">
         <v>118</v>
       </c>
@@ -3146,8 +3524,11 @@
       <c r="C119" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D119" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A120">
         <v>119</v>
       </c>
@@ -3157,8 +3538,11 @@
       <c r="C120" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D120" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A121">
         <v>120</v>
       </c>
@@ -3168,8 +3552,11 @@
       <c r="C121" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D121" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A122">
         <v>121</v>
       </c>
@@ -3179,8 +3566,11 @@
       <c r="C122" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D122" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A123">
         <v>122</v>
       </c>
@@ -3190,8 +3580,14 @@
       <c r="C123" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D123" t="s">
+        <v>5</v>
+      </c>
+      <c r="E123" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A124">
         <v>123</v>
       </c>
@@ -3201,8 +3597,11 @@
       <c r="C124" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D124" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A125">
         <v>124</v>
       </c>
@@ -3212,8 +3611,11 @@
       <c r="C125" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D125" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A126">
         <v>125</v>
       </c>
@@ -3223,8 +3625,11 @@
       <c r="C126" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D126" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A127">
         <v>126</v>
       </c>
@@ -3234,8 +3639,11 @@
       <c r="C127" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D127" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A128">
         <v>127</v>
       </c>
@@ -3245,8 +3653,11 @@
       <c r="C128" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D128" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A129">
         <v>128</v>
       </c>
@@ -3256,8 +3667,11 @@
       <c r="C129" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D129" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A130">
         <v>129</v>
       </c>
@@ -3267,8 +3681,11 @@
       <c r="C130" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D130" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A131">
         <v>130</v>
       </c>
@@ -3278,8 +3695,11 @@
       <c r="C131" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D131" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A132">
         <v>131</v>
       </c>
@@ -3289,8 +3709,11 @@
       <c r="C132" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D132" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A133">
         <v>132</v>
       </c>
@@ -3300,8 +3723,11 @@
       <c r="C133" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D133" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A134">
         <v>133</v>
       </c>
@@ -3311,8 +3737,11 @@
       <c r="C134" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D134" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A135">
         <v>134</v>
       </c>
@@ -3322,8 +3751,11 @@
       <c r="C135" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D135" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A136">
         <v>135</v>
       </c>
@@ -3333,8 +3765,11 @@
       <c r="C136" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D136" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A137">
         <v>136</v>
       </c>
@@ -3344,8 +3779,11 @@
       <c r="C137" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D137" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A138">
         <v>137</v>
       </c>
@@ -3355,8 +3793,11 @@
       <c r="C138" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D138" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A139">
         <v>138</v>
       </c>
@@ -3366,8 +3807,11 @@
       <c r="C139" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D139" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A140">
         <v>139</v>
       </c>
@@ -3377,8 +3821,11 @@
       <c r="C140" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D140" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A141">
         <v>140</v>
       </c>
@@ -3388,8 +3835,11 @@
       <c r="C141" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D141" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A142">
         <v>141</v>
       </c>
@@ -3399,8 +3849,11 @@
       <c r="C142" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D142" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A143">
         <v>142</v>
       </c>
@@ -3410,8 +3863,11 @@
       <c r="C143" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D143" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A144">
         <v>143</v>
       </c>
@@ -3421,8 +3877,11 @@
       <c r="C144" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D144" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A145">
         <v>144</v>
       </c>
@@ -3432,8 +3891,11 @@
       <c r="C145" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D145" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A146">
         <v>145</v>
       </c>
@@ -3443,8 +3905,11 @@
       <c r="C146" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D146" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A147">
         <v>146</v>
       </c>
@@ -3454,8 +3919,11 @@
       <c r="C147" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D147" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A148">
         <v>147</v>
       </c>
@@ -3465,8 +3933,11 @@
       <c r="C148" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D148" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A149">
         <v>148</v>
       </c>
@@ -3476,8 +3947,11 @@
       <c r="C149" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D149" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A150">
         <v>149</v>
       </c>
@@ -3487,8 +3961,11 @@
       <c r="C150" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D150" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A151">
         <v>150</v>
       </c>
@@ -3498,8 +3975,11 @@
       <c r="C151" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D151" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A152">
         <v>151</v>
       </c>
@@ -3509,8 +3989,11 @@
       <c r="C152" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D152" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A153">
         <v>152</v>
       </c>
@@ -3520,8 +4003,11 @@
       <c r="C153" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D153" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A154">
         <v>153</v>
       </c>
@@ -3531,8 +4017,11 @@
       <c r="C154" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D154" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A155">
         <v>154</v>
       </c>
@@ -3542,8 +4031,11 @@
       <c r="C155" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D155" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A156">
         <v>155</v>
       </c>
@@ -3553,8 +4045,11 @@
       <c r="C156" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D156" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A157">
         <v>156</v>
       </c>
@@ -3564,8 +4059,11 @@
       <c r="C157" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D157" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A158">
         <v>157</v>
       </c>
@@ -3575,8 +4073,11 @@
       <c r="C158" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D158" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A159">
         <v>158</v>
       </c>
@@ -3586,8 +4087,11 @@
       <c r="C159" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D159" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A160">
         <v>159</v>
       </c>
@@ -3597,8 +4101,11 @@
       <c r="C160" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D160" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A161">
         <v>160</v>
       </c>
@@ -3608,8 +4115,11 @@
       <c r="C161" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D161" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A162">
         <v>161</v>
       </c>
@@ -3619,8 +4129,11 @@
       <c r="C162" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D162" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A163">
         <v>162</v>
       </c>
@@ -3630,8 +4143,14 @@
       <c r="C163" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D163" t="s">
+        <v>5</v>
+      </c>
+      <c r="E163" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A164">
         <v>163</v>
       </c>
@@ -3641,8 +4160,14 @@
       <c r="C164" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D164" t="s">
+        <v>5</v>
+      </c>
+      <c r="E164" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A165">
         <v>164</v>
       </c>
@@ -3652,8 +4177,11 @@
       <c r="C165" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D165" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A166">
         <v>165</v>
       </c>
@@ -3663,8 +4191,11 @@
       <c r="C166" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D166" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A167">
         <v>166</v>
       </c>
@@ -3674,8 +4205,11 @@
       <c r="C167" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D167" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A168">
         <v>167</v>
       </c>
@@ -3685,8 +4219,11 @@
       <c r="C168" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D168" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A169">
         <v>168</v>
       </c>
@@ -3696,8 +4233,11 @@
       <c r="C169" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D169" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A170">
         <v>169</v>
       </c>
@@ -3707,8 +4247,11 @@
       <c r="C170" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D170" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A171">
         <v>170</v>
       </c>
@@ -3718,8 +4261,11 @@
       <c r="C171" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D171" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A172">
         <v>171</v>
       </c>
@@ -3729,8 +4275,11 @@
       <c r="C172" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D172" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A173">
         <v>172</v>
       </c>
@@ -3740,8 +4289,11 @@
       <c r="C173" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D173" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A174">
         <v>173</v>
       </c>
@@ -3751,8 +4303,11 @@
       <c r="C174" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D174" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A175">
         <v>174</v>
       </c>
@@ -3762,8 +4317,11 @@
       <c r="C175" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D175" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A176">
         <v>175</v>
       </c>
@@ -3771,6 +4329,9 @@
         <v>181</v>
       </c>
       <c r="C176" t="s">
+        <v>5</v>
+      </c>
+      <c r="D176" t="s">
         <v>5</v>
       </c>
     </row>
@@ -3784,6 +4345,9 @@
       <c r="C177" t="s">
         <v>5</v>
       </c>
+      <c r="D177" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A178">
@@ -3795,6 +4359,9 @@
       <c r="C178" t="s">
         <v>5</v>
       </c>
+      <c r="D178" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A179">
@@ -3806,6 +4373,9 @@
       <c r="C179" t="s">
         <v>5</v>
       </c>
+      <c r="D179" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A180">
@@ -3817,6 +4387,9 @@
       <c r="C180" t="s">
         <v>5</v>
       </c>
+      <c r="D180" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A181">
@@ -3828,6 +4401,9 @@
       <c r="C181" t="s">
         <v>5</v>
       </c>
+      <c r="D181" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A182">
@@ -3839,6 +4415,9 @@
       <c r="C182" t="s">
         <v>5</v>
       </c>
+      <c r="D182" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A183">
@@ -3850,6 +4429,9 @@
       <c r="C183" t="s">
         <v>5</v>
       </c>
+      <c r="D183" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A184">
@@ -3862,7 +4444,7 @@
         <v>15</v>
       </c>
       <c r="D184" t="s">
-        <v>190</v>
+        <v>5</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.35">
@@ -3870,10 +4452,13 @@
         <v>184</v>
       </c>
       <c r="B185" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C185" t="s">
         <v>5</v>
+      </c>
+      <c r="D185" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.35">
@@ -3881,9 +4466,12 @@
         <v>185</v>
       </c>
       <c r="B186" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C186" t="s">
+        <v>5</v>
+      </c>
+      <c r="D186" t="s">
         <v>5</v>
       </c>
     </row>
@@ -3892,9 +4480,12 @@
         <v>186</v>
       </c>
       <c r="B187" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C187" t="s">
+        <v>5</v>
+      </c>
+      <c r="D187" t="s">
         <v>5</v>
       </c>
     </row>
@@ -3903,10 +4494,13 @@
         <v>187</v>
       </c>
       <c r="B188" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C188" t="s">
         <v>5</v>
+      </c>
+      <c r="D188" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.35">
@@ -3914,10 +4508,13 @@
         <v>188</v>
       </c>
       <c r="B189" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C189" t="s">
         <v>5</v>
+      </c>
+      <c r="D189" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.35">
@@ -3925,9 +4522,12 @@
         <v>189</v>
       </c>
       <c r="B190" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C190" t="s">
+        <v>5</v>
+      </c>
+      <c r="D190" t="s">
         <v>5</v>
       </c>
     </row>
@@ -3936,9 +4536,12 @@
         <v>190</v>
       </c>
       <c r="B191" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C191" t="s">
+        <v>5</v>
+      </c>
+      <c r="D191" t="s">
         <v>5</v>
       </c>
     </row>
@@ -3947,2552 +4550,3197 @@
         <v>191</v>
       </c>
       <c r="B192" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C192" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D192" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A193">
         <v>192</v>
       </c>
       <c r="B193" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C193" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D193" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A194">
         <v>193</v>
       </c>
       <c r="B194" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C194" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D194" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A195">
         <v>194</v>
       </c>
       <c r="B195" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C195" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D195" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A196">
         <v>195</v>
       </c>
       <c r="B196" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C196" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D196" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A197">
         <v>196</v>
       </c>
       <c r="B197" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C197" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D197" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A198">
         <f>1+A197</f>
         <v>197</v>
       </c>
       <c r="B198" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C198" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D198" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A199">
         <f t="shared" ref="A199:A216" si="0">1+A198</f>
         <v>198</v>
       </c>
       <c r="B199" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C199" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D199" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A200">
         <f t="shared" si="0"/>
         <v>199</v>
       </c>
       <c r="B200" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C200" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D200" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A201">
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
       <c r="B201" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C201" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D201" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A202">
         <f t="shared" si="0"/>
         <v>201</v>
       </c>
       <c r="B202" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C202" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D202" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A203">
         <f t="shared" si="0"/>
         <v>202</v>
       </c>
       <c r="B203" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C203" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D203" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A204">
         <f t="shared" si="0"/>
         <v>203</v>
       </c>
       <c r="B204" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C204" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D204" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A205">
         <f t="shared" si="0"/>
         <v>204</v>
       </c>
       <c r="B205" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C205" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D205" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A206">
         <f t="shared" si="0"/>
         <v>205</v>
       </c>
       <c r="B206" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C206" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D206" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A207">
         <f t="shared" si="0"/>
         <v>206</v>
       </c>
       <c r="B207" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C207" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D207" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A208">
         <f t="shared" si="0"/>
         <v>207</v>
       </c>
       <c r="B208" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C208" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D208" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A209">
         <f t="shared" si="0"/>
         <v>208</v>
       </c>
       <c r="B209" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C209" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D209" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A210">
         <f>1+A209</f>
         <v>209</v>
       </c>
       <c r="B210" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C210" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D210" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A211">
         <f t="shared" si="0"/>
         <v>210</v>
       </c>
       <c r="B211" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C211" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D211" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A212">
         <f t="shared" si="0"/>
         <v>211</v>
       </c>
       <c r="B212" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C212" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D212" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A213">
         <f>1+A212</f>
         <v>212</v>
       </c>
       <c r="B213" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C213" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D213" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A214">
         <f t="shared" si="0"/>
         <v>213</v>
       </c>
       <c r="B214" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C214" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D214" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A215">
         <f>1+A214</f>
         <v>214</v>
       </c>
       <c r="B215" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C215" t="s">
         <v>15</v>
       </c>
       <c r="D215" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+      <c r="E215" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A216">
         <f t="shared" si="0"/>
         <v>215</v>
       </c>
       <c r="B216" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C216" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D216" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A217">
         <f>1+A216</f>
         <v>216</v>
       </c>
       <c r="B217" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C217" t="s">
         <v>15</v>
       </c>
       <c r="D217" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+      <c r="E217" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A218">
         <f t="shared" ref="A218:A281" si="1">1+A217</f>
         <v>217</v>
       </c>
       <c r="B218" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C218" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D218" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A219">
         <f t="shared" si="1"/>
         <v>218</v>
       </c>
       <c r="B219" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C219" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D219" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A220">
         <f t="shared" si="1"/>
         <v>219</v>
       </c>
       <c r="B220" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C220" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D220" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A221">
         <f t="shared" si="1"/>
         <v>220</v>
       </c>
       <c r="B221" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C221" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D221" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A222">
         <f t="shared" si="1"/>
         <v>221</v>
       </c>
       <c r="B222" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C222" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D222" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A223">
         <f t="shared" si="1"/>
         <v>222</v>
       </c>
       <c r="B223" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C223" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D223" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A224">
         <f t="shared" si="1"/>
         <v>223</v>
       </c>
       <c r="B224" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C224" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D224" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A225">
         <f t="shared" si="1"/>
         <v>224</v>
       </c>
       <c r="B225" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C225" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D225" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A226">
         <f t="shared" si="1"/>
         <v>225</v>
       </c>
       <c r="B226" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C226" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D226" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A227">
         <f t="shared" si="1"/>
         <v>226</v>
       </c>
       <c r="B227" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C227" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D227" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A228">
         <f t="shared" si="1"/>
         <v>227</v>
       </c>
       <c r="B228" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C228" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D228" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A229">
         <f t="shared" si="1"/>
         <v>228</v>
       </c>
       <c r="B229" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C229" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D229" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A230">
         <f t="shared" si="1"/>
         <v>229</v>
       </c>
       <c r="B230" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C230" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D230" t="s">
+        <v>5</v>
+      </c>
+      <c r="E230" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A231">
         <f t="shared" si="1"/>
         <v>230</v>
       </c>
       <c r="B231" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C231" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D231" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A232">
         <f t="shared" si="1"/>
         <v>231</v>
       </c>
       <c r="B232" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C232" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D232" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A233">
         <f t="shared" si="1"/>
         <v>232</v>
       </c>
       <c r="B233" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C233" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D233" t="s">
+        <v>5</v>
+      </c>
+      <c r="E233" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A234">
         <f t="shared" si="1"/>
         <v>233</v>
       </c>
       <c r="B234" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C234" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D234" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A235">
         <f t="shared" si="1"/>
         <v>234</v>
       </c>
       <c r="B235" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C235" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D235" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A236">
         <f t="shared" si="1"/>
         <v>235</v>
       </c>
       <c r="B236" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C236" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D236" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A237">
         <f t="shared" si="1"/>
         <v>236</v>
       </c>
       <c r="B237" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C237" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D237" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A238">
         <f t="shared" si="1"/>
         <v>237</v>
       </c>
       <c r="B238" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C238" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D238" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A239">
         <f t="shared" si="1"/>
         <v>238</v>
       </c>
       <c r="B239" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C239" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D239" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A240">
         <f t="shared" si="1"/>
         <v>239</v>
       </c>
       <c r="B240" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C240" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D240" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A241">
         <f t="shared" si="1"/>
         <v>240</v>
       </c>
       <c r="B241" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C241" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D241" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A242">
         <f t="shared" si="1"/>
         <v>241</v>
       </c>
       <c r="B242" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C242" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D242" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A243">
         <f t="shared" si="1"/>
         <v>242</v>
       </c>
       <c r="B243" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C243" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D243" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A244">
         <f t="shared" si="1"/>
         <v>243</v>
       </c>
       <c r="B244" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C244" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D244" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A245">
         <f t="shared" si="1"/>
         <v>244</v>
       </c>
       <c r="B245" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C245" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D245" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A246">
         <f t="shared" si="1"/>
         <v>245</v>
       </c>
       <c r="B246" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C246" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D246" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A247">
         <f t="shared" si="1"/>
         <v>246</v>
       </c>
       <c r="B247" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C247" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D247" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A248">
         <f t="shared" si="1"/>
         <v>247</v>
       </c>
       <c r="B248" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C248" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D248" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A249">
         <f t="shared" si="1"/>
         <v>248</v>
       </c>
       <c r="B249" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C249" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D249" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A250">
         <f t="shared" si="1"/>
         <v>249</v>
       </c>
       <c r="B250" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C250" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D250" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A251">
         <f t="shared" si="1"/>
         <v>250</v>
       </c>
       <c r="B251" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C251" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D251" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A252">
         <f t="shared" si="1"/>
         <v>251</v>
       </c>
       <c r="B252" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C252" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D252" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A253">
         <f t="shared" si="1"/>
         <v>252</v>
       </c>
       <c r="B253" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C253" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D253" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A254">
         <f t="shared" si="1"/>
         <v>253</v>
       </c>
       <c r="B254" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C254" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D254" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A255">
         <f t="shared" si="1"/>
         <v>254</v>
       </c>
       <c r="B255" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C255" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D255" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A256">
         <f t="shared" si="1"/>
         <v>255</v>
       </c>
       <c r="B256" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C256" t="s">
         <v>15</v>
       </c>
       <c r="D256" t="s">
+        <v>5</v>
+      </c>
+      <c r="E256" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A257">
         <f t="shared" si="1"/>
         <v>256</v>
       </c>
       <c r="B257" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C257" t="s">
         <v>15</v>
       </c>
       <c r="D257" t="s">
+        <v>5</v>
+      </c>
+      <c r="E257" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A258">
         <f t="shared" si="1"/>
         <v>257</v>
       </c>
       <c r="B258" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C258" t="s">
         <v>15</v>
       </c>
       <c r="D258" t="s">
+        <v>5</v>
+      </c>
+      <c r="E258" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A259">
         <f t="shared" si="1"/>
         <v>258</v>
       </c>
       <c r="B259" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C259" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D259" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A260">
         <f t="shared" si="1"/>
         <v>259</v>
       </c>
       <c r="B260" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C260" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D260" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A261">
         <f t="shared" si="1"/>
         <v>260</v>
       </c>
       <c r="B261" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C261" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D261" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A262">
         <f t="shared" si="1"/>
         <v>261</v>
       </c>
       <c r="B262" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C262" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D262" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A263">
         <f t="shared" si="1"/>
         <v>262</v>
       </c>
       <c r="B263" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C263" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D263" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A264">
         <f t="shared" si="1"/>
         <v>263</v>
       </c>
       <c r="B264" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C264" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D264" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A265">
         <f t="shared" si="1"/>
         <v>264</v>
       </c>
       <c r="B265" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C265" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D265" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A266">
         <f t="shared" si="1"/>
         <v>265</v>
       </c>
       <c r="B266" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C266" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D266" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A267">
         <f t="shared" si="1"/>
         <v>266</v>
       </c>
       <c r="B267" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C267" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D267" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A268">
         <f t="shared" si="1"/>
         <v>267</v>
       </c>
       <c r="B268" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C268" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D268" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A269">
         <f t="shared" si="1"/>
         <v>268</v>
       </c>
       <c r="B269" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C269" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D269" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A270">
         <f t="shared" si="1"/>
         <v>269</v>
       </c>
       <c r="B270" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C270" t="s">
         <v>15</v>
       </c>
       <c r="D270" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+      <c r="E270" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A271">
         <f t="shared" si="1"/>
         <v>270</v>
       </c>
       <c r="B271" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C271" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D271" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A272">
         <f t="shared" si="1"/>
         <v>271</v>
       </c>
       <c r="B272" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C272" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D272" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A273">
         <f t="shared" si="1"/>
         <v>272</v>
       </c>
       <c r="B273" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C273" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D273" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A274">
         <f t="shared" si="1"/>
         <v>273</v>
       </c>
       <c r="B274" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C274" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D274" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A275">
         <f t="shared" si="1"/>
         <v>274</v>
       </c>
       <c r="B275" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C275" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D275" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A276">
         <f t="shared" si="1"/>
         <v>275</v>
       </c>
       <c r="B276" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C276" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D276" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A277">
         <f t="shared" si="1"/>
         <v>276</v>
       </c>
       <c r="B277" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C277" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D277" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A278">
         <f t="shared" si="1"/>
         <v>277</v>
       </c>
       <c r="B278" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C278" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D278" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A279">
         <f t="shared" si="1"/>
         <v>278</v>
       </c>
       <c r="B279" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C279" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D279" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A280">
         <f t="shared" si="1"/>
         <v>279</v>
       </c>
       <c r="B280" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C280" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D280" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A281">
         <f t="shared" si="1"/>
         <v>280</v>
       </c>
       <c r="B281" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C281" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D281" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A282">
         <f t="shared" ref="A282:A345" si="2">1+A281</f>
         <v>281</v>
       </c>
       <c r="B282" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C282" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D282" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A283">
         <f t="shared" si="2"/>
         <v>282</v>
       </c>
       <c r="B283" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C283" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D283" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A284">
         <f t="shared" si="2"/>
         <v>283</v>
       </c>
       <c r="B284" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C284" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D284" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A285">
         <f t="shared" si="2"/>
         <v>284</v>
       </c>
       <c r="B285" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C285" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D285" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A286">
         <f t="shared" si="2"/>
         <v>285</v>
       </c>
       <c r="B286" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C286" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D286" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A287">
         <f t="shared" si="2"/>
         <v>286</v>
       </c>
       <c r="B287" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C287" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D287" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A288">
         <f t="shared" si="2"/>
         <v>287</v>
       </c>
       <c r="B288" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C288" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D288" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A289">
         <f t="shared" si="2"/>
         <v>288</v>
       </c>
       <c r="B289" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C289" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D289" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A290">
         <f t="shared" si="2"/>
         <v>289</v>
       </c>
       <c r="B290" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C290" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D290" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A291">
         <f t="shared" si="2"/>
         <v>290</v>
       </c>
       <c r="B291" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C291" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D291" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A292">
         <f t="shared" si="2"/>
         <v>291</v>
       </c>
       <c r="B292" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C292" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D292" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A293">
         <f t="shared" si="2"/>
         <v>292</v>
       </c>
       <c r="B293" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C293" t="s">
         <v>15</v>
       </c>
       <c r="D293" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+      <c r="E293" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A294">
         <f t="shared" si="2"/>
         <v>293</v>
       </c>
       <c r="B294" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C294" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D294" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A295">
         <f t="shared" si="2"/>
         <v>294</v>
       </c>
       <c r="B295" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C295" t="s">
         <v>15</v>
       </c>
       <c r="D295" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+      <c r="E295" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A296">
         <f t="shared" si="2"/>
         <v>295</v>
       </c>
       <c r="B296" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C296" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D296" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A297">
         <f t="shared" si="2"/>
         <v>296</v>
       </c>
       <c r="B297" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C297" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D297" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A298">
         <f t="shared" si="2"/>
         <v>297</v>
       </c>
       <c r="B298" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C298" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D298" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A299">
         <f t="shared" si="2"/>
         <v>298</v>
       </c>
       <c r="B299" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C299" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D299" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A300">
         <f t="shared" si="2"/>
         <v>299</v>
       </c>
       <c r="B300" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C300" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D300" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A301">
         <f t="shared" si="2"/>
         <v>300</v>
       </c>
       <c r="B301" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C301" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D301" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A302">
         <f t="shared" si="2"/>
         <v>301</v>
       </c>
       <c r="B302" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C302" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D302" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A303">
         <f t="shared" si="2"/>
         <v>302</v>
       </c>
       <c r="B303" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C303" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D303" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A304">
         <f t="shared" si="2"/>
         <v>303</v>
       </c>
       <c r="B304" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C304" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D304" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A305">
         <f t="shared" si="2"/>
         <v>304</v>
       </c>
       <c r="B305" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C305" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D305" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A306">
         <f t="shared" si="2"/>
         <v>305</v>
       </c>
       <c r="B306" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C306" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D306" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A307">
         <f t="shared" si="2"/>
         <v>306</v>
       </c>
       <c r="B307" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C307" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D307" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A308">
         <f t="shared" si="2"/>
         <v>307</v>
       </c>
       <c r="B308" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C308" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D308" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A309">
         <f t="shared" si="2"/>
         <v>308</v>
       </c>
       <c r="B309" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C309" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D309" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A310">
         <f t="shared" si="2"/>
         <v>309</v>
       </c>
       <c r="B310" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C310" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D310" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A311">
         <f t="shared" si="2"/>
         <v>310</v>
       </c>
       <c r="B311" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C311" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D311" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A312">
         <f t="shared" si="2"/>
         <v>311</v>
       </c>
       <c r="B312" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C312" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D312" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A313">
         <f t="shared" si="2"/>
         <v>312</v>
       </c>
       <c r="B313" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C313" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D313" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A314">
         <f t="shared" si="2"/>
         <v>313</v>
       </c>
       <c r="B314" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C314" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D314" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A315">
         <f t="shared" si="2"/>
         <v>314</v>
       </c>
       <c r="B315" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C315" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D315" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A316">
         <f t="shared" si="2"/>
         <v>315</v>
       </c>
       <c r="B316" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C316" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D316" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A317">
         <f t="shared" si="2"/>
         <v>316</v>
       </c>
       <c r="B317" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C317" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D317" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A318">
         <f t="shared" si="2"/>
         <v>317</v>
       </c>
       <c r="B318" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C318" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D318" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A319">
         <f t="shared" si="2"/>
         <v>318</v>
       </c>
       <c r="B319" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C319" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D319" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A320">
         <f t="shared" si="2"/>
         <v>319</v>
       </c>
       <c r="B320" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C320" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D320" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A321">
         <f t="shared" si="2"/>
         <v>320</v>
       </c>
       <c r="B321" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C321" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D321" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A322">
         <f t="shared" si="2"/>
         <v>321</v>
       </c>
       <c r="B322" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C322" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D322" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A323">
         <f t="shared" si="2"/>
         <v>322</v>
       </c>
       <c r="B323" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C323" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D323" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A324">
         <f t="shared" si="2"/>
         <v>323</v>
       </c>
       <c r="B324" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C324" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D324" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A325">
         <f t="shared" si="2"/>
         <v>324</v>
       </c>
       <c r="B325" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C325" t="s">
         <v>15</v>
       </c>
-      <c r="D325" s="4"/>
-    </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D325" t="s">
+        <v>5</v>
+      </c>
+      <c r="E325" s="4"/>
+    </row>
+    <row r="326" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A326">
         <f t="shared" si="2"/>
         <v>325</v>
       </c>
       <c r="B326" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C326" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D326" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A327">
         <f t="shared" si="2"/>
         <v>326</v>
       </c>
       <c r="B327" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C327" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D327" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A328">
         <f t="shared" si="2"/>
         <v>327</v>
       </c>
       <c r="B328" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C328" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D328" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A329">
         <f t="shared" si="2"/>
         <v>328</v>
       </c>
       <c r="B329" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C329" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D329" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A330">
         <f t="shared" si="2"/>
         <v>329</v>
       </c>
       <c r="B330" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C330" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D330" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A331">
         <f t="shared" si="2"/>
         <v>330</v>
       </c>
       <c r="B331" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C331" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D331" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A332">
         <f t="shared" si="2"/>
         <v>331</v>
       </c>
       <c r="B332" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C332" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D332" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A333">
         <f t="shared" si="2"/>
         <v>332</v>
       </c>
       <c r="B333" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C333" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D333" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A334">
         <f t="shared" si="2"/>
         <v>333</v>
       </c>
       <c r="B334" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C334" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D334" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A335">
         <f t="shared" si="2"/>
         <v>334</v>
       </c>
       <c r="B335" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C335" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D335" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A336">
         <f t="shared" si="2"/>
         <v>335</v>
       </c>
       <c r="B336" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C336" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D336" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A337">
         <f t="shared" si="2"/>
         <v>336</v>
       </c>
       <c r="B337" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C337" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D337" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A338">
         <f t="shared" si="2"/>
         <v>337</v>
       </c>
       <c r="B338" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C338" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D338" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A339">
         <f t="shared" si="2"/>
         <v>338</v>
       </c>
       <c r="B339" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C339" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D339" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A340">
         <f t="shared" si="2"/>
         <v>339</v>
       </c>
       <c r="B340" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C340" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D340" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A341">
         <f t="shared" si="2"/>
         <v>340</v>
       </c>
       <c r="B341" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C341" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D341" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A342">
         <f t="shared" si="2"/>
         <v>341</v>
       </c>
       <c r="B342" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C342" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D342" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A343">
         <f t="shared" si="2"/>
         <v>342</v>
       </c>
       <c r="B343" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C343" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D343" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A344">
         <f t="shared" si="2"/>
         <v>343</v>
       </c>
       <c r="B344" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C344" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D344" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A345">
         <f t="shared" si="2"/>
         <v>344</v>
       </c>
       <c r="B345" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C345" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D345" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A346">
         <f t="shared" ref="A346:A402" si="3">1+A345</f>
         <v>345</v>
       </c>
       <c r="B346" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C346" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D346" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A347">
         <f t="shared" si="3"/>
         <v>346</v>
       </c>
       <c r="B347" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C347" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D347" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A348">
         <f t="shared" si="3"/>
         <v>347</v>
       </c>
       <c r="B348" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C348" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D348" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A349">
         <f t="shared" si="3"/>
         <v>348</v>
       </c>
       <c r="B349" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C349" t="s">
         <v>15</v>
       </c>
-      <c r="D349" s="5"/>
-    </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D349" t="s">
+        <v>5</v>
+      </c>
+      <c r="E349" s="5"/>
+    </row>
+    <row r="350" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A350">
         <f t="shared" si="3"/>
         <v>349</v>
       </c>
       <c r="B350" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C350" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D350" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A351">
         <f t="shared" si="3"/>
         <v>350</v>
       </c>
       <c r="B351" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C351" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D351" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A352">
         <f t="shared" si="3"/>
         <v>351</v>
       </c>
       <c r="B352" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C352" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D352" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A353">
         <f t="shared" si="3"/>
         <v>352</v>
       </c>
       <c r="B353" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C353" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D353" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A354">
         <f t="shared" si="3"/>
         <v>353</v>
       </c>
       <c r="B354" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C354" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D354" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A355">
         <f t="shared" si="3"/>
         <v>354</v>
       </c>
       <c r="B355" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C355" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D355" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A356">
         <f t="shared" si="3"/>
         <v>355</v>
       </c>
       <c r="B356" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C356" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D356" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A357">
         <f t="shared" si="3"/>
         <v>356</v>
       </c>
       <c r="B357" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C357" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D357" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A358">
         <f t="shared" si="3"/>
         <v>357</v>
       </c>
       <c r="B358" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C358" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D358" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A359">
         <f t="shared" si="3"/>
         <v>358</v>
       </c>
       <c r="B359" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C359" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D359" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A360">
         <f t="shared" si="3"/>
         <v>359</v>
       </c>
       <c r="B360" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C360" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D360" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A361">
         <f t="shared" si="3"/>
         <v>360</v>
       </c>
       <c r="B361" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C361" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D361" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A362">
         <f t="shared" si="3"/>
         <v>361</v>
       </c>
       <c r="B362" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C362" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D362" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A363">
         <f t="shared" si="3"/>
         <v>362</v>
       </c>
       <c r="B363" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C363" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D363" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A364">
         <f t="shared" si="3"/>
         <v>363</v>
       </c>
       <c r="B364" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C364" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D364" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A365">
         <f t="shared" si="3"/>
         <v>364</v>
       </c>
       <c r="B365" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C365" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D365" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A366">
         <f t="shared" si="3"/>
         <v>365</v>
       </c>
       <c r="B366" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C366" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D366" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A367">
         <f t="shared" si="3"/>
         <v>366</v>
       </c>
       <c r="B367" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C367" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D367" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A368">
         <f t="shared" si="3"/>
         <v>367</v>
       </c>
       <c r="B368" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C368" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D368" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A369">
         <f t="shared" si="3"/>
         <v>368</v>
       </c>
       <c r="B369" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C369" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D369" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A370">
         <f t="shared" si="3"/>
         <v>369</v>
       </c>
       <c r="B370" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C370" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D370" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="371" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A371">
         <f t="shared" si="3"/>
         <v>370</v>
       </c>
       <c r="B371" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C371" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D371" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="372" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A372">
         <f t="shared" si="3"/>
         <v>371</v>
       </c>
       <c r="B372" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C372" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D372" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="373" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A373">
         <f t="shared" si="3"/>
         <v>372</v>
       </c>
       <c r="B373" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C373" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D373" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="374" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A374">
         <f t="shared" si="3"/>
         <v>373</v>
       </c>
       <c r="B374" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C374" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D374" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="375" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A375">
         <f t="shared" si="3"/>
         <v>374</v>
       </c>
       <c r="B375" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C375" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D375" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="376" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A376">
         <f t="shared" si="3"/>
         <v>375</v>
       </c>
       <c r="B376" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C376" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D376" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="377" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A377">
         <f t="shared" si="3"/>
         <v>376</v>
       </c>
       <c r="B377" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C377" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D377" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="378" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A378">
         <f t="shared" si="3"/>
         <v>377</v>
       </c>
       <c r="B378" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C378" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="379" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D378" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="379" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A379">
         <f t="shared" si="3"/>
         <v>378</v>
       </c>
       <c r="B379" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C379" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D379" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="380" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A380">
         <f t="shared" si="3"/>
         <v>379</v>
       </c>
       <c r="B380" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C380" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="381" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D380" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="381" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A381">
         <f t="shared" si="3"/>
         <v>380</v>
       </c>
       <c r="B381" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C381" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D381" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="382" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A382">
         <f t="shared" si="3"/>
         <v>381</v>
       </c>
       <c r="B382" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C382" t="s">
         <v>15</v>
       </c>
-      <c r="D382" s="5"/>
-    </row>
-    <row r="383" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D382" t="s">
+        <v>5</v>
+      </c>
+      <c r="E382" s="5"/>
+    </row>
+    <row r="383" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A383">
         <f t="shared" si="3"/>
         <v>382</v>
       </c>
       <c r="B383" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C383" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="384" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D383" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="384" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A384">
         <f t="shared" si="3"/>
         <v>383</v>
       </c>
       <c r="B384" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C384" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="385" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D384" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="385" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A385">
         <f t="shared" si="3"/>
         <v>384</v>
       </c>
       <c r="B385" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C385" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="386" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D385" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="386" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A386">
         <f t="shared" si="3"/>
         <v>385</v>
       </c>
       <c r="B386" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C386" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="387" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D386" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="387" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A387">
         <f t="shared" si="3"/>
         <v>386</v>
       </c>
       <c r="B387" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C387" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="388" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D387" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="388" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A388">
         <f t="shared" si="3"/>
         <v>387</v>
       </c>
       <c r="B388" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C388" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="389" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D388" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="389" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A389">
         <f t="shared" si="3"/>
         <v>388</v>
       </c>
       <c r="B389" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C389" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="390" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D389" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="390" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A390">
         <f t="shared" si="3"/>
         <v>389</v>
       </c>
       <c r="B390" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C390" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="391" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D390" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="391" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A391">
         <f t="shared" si="3"/>
         <v>390</v>
       </c>
       <c r="B391" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C391" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="392" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D391" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="392" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A392">
         <f t="shared" si="3"/>
         <v>391</v>
       </c>
       <c r="B392" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C392" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="393" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D392" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="393" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A393">
         <f t="shared" si="3"/>
         <v>392</v>
       </c>
       <c r="B393" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C393" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="394" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D393" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="394" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A394">
         <f t="shared" si="3"/>
         <v>393</v>
       </c>
       <c r="B394" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C394" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="395" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D394" t="s">
+        <v>5</v>
+      </c>
+      <c r="E394" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="395" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A395">
         <f t="shared" si="3"/>
         <v>394</v>
       </c>
       <c r="B395" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C395" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="396" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D395" t="s">
+        <v>5</v>
+      </c>
+      <c r="E395" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="396" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A396">
         <f t="shared" si="3"/>
         <v>395</v>
       </c>
       <c r="B396" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C396" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="397" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D396" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="397" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A397">
         <f t="shared" si="3"/>
         <v>396</v>
       </c>
       <c r="B397" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C397" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="398" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D397" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="398" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A398">
         <f t="shared" si="3"/>
         <v>397</v>
       </c>
       <c r="B398" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C398" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="399" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D398" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="399" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A399">
         <f t="shared" si="3"/>
         <v>398</v>
       </c>
       <c r="B399" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C399" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="400" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D399" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="400" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A400">
         <f t="shared" si="3"/>
         <v>399</v>
       </c>
       <c r="B400" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C400" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="401" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D400" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A401">
         <f t="shared" si="3"/>
         <v>400</v>
       </c>
       <c r="B401" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C401" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="402" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D401" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A402">
         <f t="shared" si="3"/>
         <v>401</v>
       </c>
       <c r="B402" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C402" t="s">
         <v>15</v>
+      </c>
+      <c r="D402" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -6528,16 +7776,16 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>205</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -6554,13 +7802,13 @@
         <v>161880242</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>207</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -6577,10 +7825,10 @@
         <v>228197190</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>209</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -6597,10 +7845,10 @@
         <v>197989253</v>
       </c>
       <c r="F4" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>211</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -6617,10 +7865,10 @@
         <v>268329601</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -6637,10 +7885,10 @@
         <v>268329601</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -6657,10 +7905,10 @@
         <v>268329601</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -6677,10 +7925,10 @@
         <v>268329601</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -6697,10 +7945,10 @@
         <v>268329601</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -6717,10 +7965,10 @@
         <v>4187756</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -6737,10 +7985,10 @@
         <v>80818116</v>
       </c>
       <c r="F11" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="H11" s="2" t="s">
         <v>219</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>220</v>
       </c>
     </row>
   </sheetData>

--- a/annotated_data/top_10_medicinal_hits/annotations/manually_annotated_chunks/annotated_chunks_list.xlsx
+++ b/annotated_data/top_10_medicinal_hits/annotations/manually_annotated_chunks/annotated_chunks_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://rbgkew-my.sharepoint.com/personal/f_civita_kew_org/Documents/Documents/mygithub/MedicinalPlantMining/annotated_data/top_10_medicinal_hits/annotations/manually_annotated_chunks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="366" documentId="14_{FAA565CD-23E9-42EE-9269-EDB9600C0C4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{192B5118-B367-49D3-821D-E2ABBABAA92B}"/>
+  <xr:revisionPtr revIDLastSave="367" documentId="14_{FAA565CD-23E9-42EE-9269-EDB9600C0C4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7D0DA499-B3CF-4152-BDE1-47C2537DB921}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19310" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1842,8 +1842,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E402"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A306" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A223" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D234" sqref="D234"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5175,7 +5175,7 @@
         <v>5</v>
       </c>
       <c r="D233" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E233" t="s">
         <v>440</v>
